--- a/内部設計書/内部設計書_2_1_ユーザー登録画面.xlsx
+++ b/内部設計書/内部設計書_2_1_ユーザー登録画面.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\研修\01_設計\ドキュメントフォーマット\設計書サンプル\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7C46F6-C5C2-45F8-A2E8-94B2D20DB6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2.処理内容" sheetId="6" r:id="rId1"/>
@@ -34,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2.処理内容'!$1:$6</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'2.処理内容'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -369,19 +363,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　　　　( 2 )　( 1 )の結果がfalseを場合には、Modelに以下の項目を追加してユーザ登録画面のViewを返却する。</t>
-    <rPh sb="16" eb="18">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザ登録チェック</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
@@ -471,15 +452,28 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>　　　　( 4 )　( 1 )の結果がfalseの場合には、Modelに以下の項目を追加してユーザ登録画面のViewを返却する。</t>
+    <rPh sb="16" eb="18">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1106,9 +1100,99 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1117,7 +1201,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,24 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,143 +1315,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1663,128 +1657,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL34" sqref="AL34"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="0.6640625" style="6"/>
-    <col min="2" max="87" width="1.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="6"/>
+    <col min="2" max="87" width="1.625" style="6" customWidth="1"/>
     <col min="88" max="1025" width="9" style="6"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="65" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="65"/>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="66" t="s">
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="109"/>
+      <c r="AM1" s="109"/>
+      <c r="AN1" s="109"/>
+      <c r="AO1" s="109"/>
+      <c r="AP1" s="109"/>
+      <c r="AQ1" s="109"/>
+      <c r="AR1" s="109"/>
+      <c r="AS1" s="109"/>
+      <c r="AT1" s="109"/>
+      <c r="AU1" s="109"/>
+      <c r="AV1" s="109"/>
+      <c r="AW1" s="109"/>
+      <c r="AX1" s="109"/>
+      <c r="AY1" s="109"/>
+      <c r="AZ1" s="109"/>
+      <c r="BA1" s="109"/>
+      <c r="BB1" s="109"/>
+      <c r="BC1" s="109"/>
+      <c r="BD1" s="109"/>
+      <c r="BE1" s="109"/>
+      <c r="BF1" s="109"/>
+      <c r="BG1" s="109"/>
+      <c r="BH1" s="109"/>
+      <c r="BI1" s="109"/>
+      <c r="BJ1" s="109"/>
+      <c r="BK1" s="109"/>
+      <c r="BL1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="66"/>
-      <c r="BN1" s="66"/>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="67" t="s">
+      <c r="BM1" s="110"/>
+      <c r="BN1" s="110"/>
+      <c r="BO1" s="110"/>
+      <c r="BP1" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="68" t="s">
+      <c r="BQ1" s="111"/>
+      <c r="BR1" s="111"/>
+      <c r="BS1" s="111"/>
+      <c r="BT1" s="111"/>
+      <c r="BU1" s="111"/>
+      <c r="BV1" s="111"/>
+      <c r="BW1" s="111"/>
+      <c r="BX1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="68"/>
-      <c r="BZ1" s="68"/>
-      <c r="CA1" s="68"/>
-      <c r="CB1" s="55"/>
-      <c r="CC1" s="55"/>
-      <c r="CD1" s="55"/>
-      <c r="CE1" s="55"/>
-      <c r="CF1" s="55"/>
-      <c r="CG1" s="55"/>
-      <c r="CH1" s="55"/>
-      <c r="CI1" s="55"/>
+      <c r="BY1" s="112"/>
+      <c r="BZ1" s="112"/>
+      <c r="CA1" s="112"/>
+      <c r="CB1" s="99"/>
+      <c r="CC1" s="99"/>
+      <c r="CD1" s="99"/>
+      <c r="CE1" s="99"/>
+      <c r="CF1" s="99"/>
+      <c r="CG1" s="99"/>
+      <c r="CH1" s="99"/>
+      <c r="CI1" s="99"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2724,106 +2718,106 @@
       <c r="AMJ1" s="1"/>
       <c r="AMK1" s="2"/>
     </row>
-    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="58" t="s">
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="58"/>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="59" t="s">
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
+      <c r="BH2" s="102"/>
+      <c r="BI2" s="102"/>
+      <c r="BJ2" s="102"/>
+      <c r="BK2" s="102"/>
+      <c r="BL2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="59"/>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="60">
+      <c r="BM2" s="103"/>
+      <c r="BN2" s="103"/>
+      <c r="BO2" s="103"/>
+      <c r="BP2" s="104">
         <v>44691</v>
       </c>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="60"/>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="61" t="s">
+      <c r="BQ2" s="104"/>
+      <c r="BR2" s="104"/>
+      <c r="BS2" s="104"/>
+      <c r="BT2" s="104"/>
+      <c r="BU2" s="104"/>
+      <c r="BV2" s="104"/>
+      <c r="BW2" s="104"/>
+      <c r="BX2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="61"/>
-      <c r="BZ2" s="61"/>
-      <c r="CA2" s="61"/>
-      <c r="CB2" s="62"/>
-      <c r="CC2" s="62"/>
-      <c r="CD2" s="62"/>
-      <c r="CE2" s="62"/>
-      <c r="CF2" s="62"/>
-      <c r="CG2" s="62"/>
-      <c r="CH2" s="62"/>
-      <c r="CI2" s="62"/>
+      <c r="BY2" s="105"/>
+      <c r="BZ2" s="105"/>
+      <c r="CA2" s="105"/>
+      <c r="CB2" s="106"/>
+      <c r="CC2" s="106"/>
+      <c r="CD2" s="106"/>
+      <c r="CE2" s="106"/>
+      <c r="CF2" s="106"/>
+      <c r="CG2" s="106"/>
+      <c r="CH2" s="106"/>
+      <c r="CI2" s="106"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3763,7 +3757,7 @@
       <c r="AMJ2" s="1"/>
       <c r="AMK2" s="2"/>
     </row>
-    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -3851,102 +3845,102 @@
       <c r="CH3" s="25"/>
       <c r="CI3" s="25"/>
     </row>
-    <row r="4" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77" t="s">
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="78" t="s">
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="AT4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="78"/>
-      <c r="BI4" s="78"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="78"/>
-      <c r="BM4" s="78"/>
-      <c r="BN4" s="78"/>
-      <c r="BO4" s="78"/>
-      <c r="BP4" s="78"/>
-      <c r="BQ4" s="78"/>
-      <c r="BR4" s="78"/>
-      <c r="BS4" s="78"/>
-      <c r="BT4" s="78"/>
-      <c r="BU4" s="78"/>
-      <c r="BV4" s="78"/>
-      <c r="BW4" s="78"/>
-      <c r="BX4" s="78"/>
-      <c r="BY4" s="78"/>
-      <c r="BZ4" s="78"/>
-      <c r="CA4" s="78"/>
-      <c r="CB4" s="78"/>
-      <c r="CC4" s="78"/>
-      <c r="CD4" s="78"/>
-      <c r="CE4" s="78"/>
-      <c r="CF4" s="78"/>
-      <c r="CG4" s="78"/>
-      <c r="CH4" s="78"/>
-      <c r="CI4" s="78"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="91"/>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="91"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="91"/>
+      <c r="BM4" s="91"/>
+      <c r="BN4" s="91"/>
+      <c r="BO4" s="91"/>
+      <c r="BP4" s="91"/>
+      <c r="BQ4" s="91"/>
+      <c r="BR4" s="91"/>
+      <c r="BS4" s="91"/>
+      <c r="BT4" s="91"/>
+      <c r="BU4" s="91"/>
+      <c r="BV4" s="91"/>
+      <c r="BW4" s="91"/>
+      <c r="BX4" s="91"/>
+      <c r="BY4" s="91"/>
+      <c r="BZ4" s="91"/>
+      <c r="CA4" s="91"/>
+      <c r="CB4" s="91"/>
+      <c r="CC4" s="91"/>
+      <c r="CD4" s="91"/>
+      <c r="CE4" s="91"/>
+      <c r="CF4" s="91"/>
+      <c r="CG4" s="91"/>
+      <c r="CH4" s="91"/>
+      <c r="CI4" s="91"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4886,102 +4880,102 @@
       <c r="AMJ4" s="2"/>
       <c r="AMK4" s="2"/>
     </row>
-    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="71">
+      <c r="B5" s="85">
         <v>1</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="69" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69" t="s">
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="70" t="s">
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="AT5" s="70"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="70"/>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="70"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="70"/>
-      <c r="BF5" s="70"/>
-      <c r="BG5" s="70"/>
-      <c r="BH5" s="70"/>
-      <c r="BI5" s="70"/>
-      <c r="BJ5" s="70"/>
-      <c r="BK5" s="70"/>
-      <c r="BL5" s="70"/>
-      <c r="BM5" s="70"/>
-      <c r="BN5" s="70"/>
-      <c r="BO5" s="70"/>
-      <c r="BP5" s="70"/>
-      <c r="BQ5" s="70"/>
-      <c r="BR5" s="70"/>
-      <c r="BS5" s="70"/>
-      <c r="BT5" s="70"/>
-      <c r="BU5" s="70"/>
-      <c r="BV5" s="70"/>
-      <c r="BW5" s="70"/>
-      <c r="BX5" s="70"/>
-      <c r="BY5" s="70"/>
-      <c r="BZ5" s="70"/>
-      <c r="CA5" s="70"/>
-      <c r="CB5" s="70"/>
-      <c r="CC5" s="70"/>
-      <c r="CD5" s="70"/>
-      <c r="CE5" s="70"/>
-      <c r="CF5" s="70"/>
-      <c r="CG5" s="70"/>
-      <c r="CH5" s="70"/>
-      <c r="CI5" s="70"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="95"/>
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="95"/>
+      <c r="BI5" s="95"/>
+      <c r="BJ5" s="95"/>
+      <c r="BK5" s="95"/>
+      <c r="BL5" s="95"/>
+      <c r="BM5" s="95"/>
+      <c r="BN5" s="95"/>
+      <c r="BO5" s="95"/>
+      <c r="BP5" s="95"/>
+      <c r="BQ5" s="95"/>
+      <c r="BR5" s="95"/>
+      <c r="BS5" s="95"/>
+      <c r="BT5" s="95"/>
+      <c r="BU5" s="95"/>
+      <c r="BV5" s="95"/>
+      <c r="BW5" s="95"/>
+      <c r="BX5" s="95"/>
+      <c r="BY5" s="95"/>
+      <c r="BZ5" s="95"/>
+      <c r="CA5" s="95"/>
+      <c r="CB5" s="95"/>
+      <c r="CC5" s="95"/>
+      <c r="CD5" s="95"/>
+      <c r="CE5" s="95"/>
+      <c r="CF5" s="95"/>
+      <c r="CG5" s="95"/>
+      <c r="CH5" s="95"/>
+      <c r="CI5" s="95"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -5921,7 +5915,7 @@
       <c r="AMJ5" s="2"/>
       <c r="AMK5" s="2"/>
     </row>
-    <row r="6" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -6009,202 +6003,202 @@
       <c r="CH6" s="5"/>
       <c r="CI6" s="5"/>
     </row>
-    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="76" t="s">
+    <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="79" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="73" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="73" t="s">
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="78" t="s">
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="84"/>
+      <c r="AS7" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="78"/>
-      <c r="BA7" s="78"/>
-      <c r="BB7" s="78"/>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="78"/>
-      <c r="BE7" s="78"/>
-      <c r="BF7" s="78"/>
-      <c r="BG7" s="78"/>
-      <c r="BH7" s="78"/>
-      <c r="BI7" s="78"/>
-      <c r="BJ7" s="78"/>
-      <c r="BK7" s="78"/>
-      <c r="BL7" s="78"/>
-      <c r="BM7" s="78"/>
-      <c r="BN7" s="78"/>
-      <c r="BO7" s="78"/>
-      <c r="BP7" s="78"/>
-      <c r="BQ7" s="78"/>
-      <c r="BR7" s="78"/>
-      <c r="BS7" s="78"/>
-      <c r="BT7" s="78"/>
-      <c r="BU7" s="78"/>
-      <c r="BV7" s="78"/>
-      <c r="BW7" s="78"/>
-      <c r="BX7" s="78"/>
-      <c r="BY7" s="78"/>
-      <c r="BZ7" s="78"/>
-      <c r="CA7" s="78"/>
-      <c r="CB7" s="78"/>
-      <c r="CC7" s="78"/>
-      <c r="CD7" s="78"/>
-      <c r="CE7" s="78"/>
-      <c r="CF7" s="78"/>
-      <c r="CG7" s="78"/>
-      <c r="CH7" s="78"/>
-      <c r="CI7" s="78"/>
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="91"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="91"/>
+      <c r="AZ7" s="91"/>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="91"/>
+      <c r="BD7" s="91"/>
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="91"/>
+      <c r="BG7" s="91"/>
+      <c r="BH7" s="91"/>
+      <c r="BI7" s="91"/>
+      <c r="BJ7" s="91"/>
+      <c r="BK7" s="91"/>
+      <c r="BL7" s="91"/>
+      <c r="BM7" s="91"/>
+      <c r="BN7" s="91"/>
+      <c r="BO7" s="91"/>
+      <c r="BP7" s="91"/>
+      <c r="BQ7" s="91"/>
+      <c r="BR7" s="91"/>
+      <c r="BS7" s="91"/>
+      <c r="BT7" s="91"/>
+      <c r="BU7" s="91"/>
+      <c r="BV7" s="91"/>
+      <c r="BW7" s="91"/>
+      <c r="BX7" s="91"/>
+      <c r="BY7" s="91"/>
+      <c r="BZ7" s="91"/>
+      <c r="CA7" s="91"/>
+      <c r="CB7" s="91"/>
+      <c r="CC7" s="91"/>
+      <c r="CD7" s="91"/>
+      <c r="CE7" s="91"/>
+      <c r="CF7" s="91"/>
+      <c r="CG7" s="91"/>
+      <c r="CH7" s="91"/>
+      <c r="CI7" s="91"/>
     </row>
-    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="71">
-        <v>1</v>
+      <c r="B8" s="85">
+        <v>2</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="46" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="46" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="46" t="s">
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="72" t="s">
+      <c r="AJ8" s="97"/>
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="97"/>
+      <c r="AP8" s="97"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="98"/>
+      <c r="AS8" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="72"/>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="72"/>
-      <c r="BJ8" s="72"/>
-      <c r="BK8" s="72"/>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="72"/>
-      <c r="BN8" s="72"/>
-      <c r="BO8" s="72"/>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="72"/>
-      <c r="BR8" s="72"/>
-      <c r="BS8" s="72"/>
-      <c r="BT8" s="72"/>
-      <c r="BU8" s="72"/>
-      <c r="BV8" s="72"/>
-      <c r="BW8" s="72"/>
-      <c r="BX8" s="72"/>
-      <c r="BY8" s="72"/>
-      <c r="BZ8" s="72"/>
-      <c r="CA8" s="72"/>
-      <c r="CB8" s="72"/>
-      <c r="CC8" s="72"/>
-      <c r="CD8" s="72"/>
-      <c r="CE8" s="72"/>
-      <c r="CF8" s="72"/>
-      <c r="CG8" s="72"/>
-      <c r="CH8" s="72"/>
-      <c r="CI8" s="72"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="93"/>
+      <c r="BA8" s="93"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="93"/>
+      <c r="BF8" s="93"/>
+      <c r="BG8" s="93"/>
+      <c r="BH8" s="93"/>
+      <c r="BI8" s="93"/>
+      <c r="BJ8" s="93"/>
+      <c r="BK8" s="93"/>
+      <c r="BL8" s="93"/>
+      <c r="BM8" s="93"/>
+      <c r="BN8" s="93"/>
+      <c r="BO8" s="93"/>
+      <c r="BP8" s="93"/>
+      <c r="BQ8" s="93"/>
+      <c r="BR8" s="93"/>
+      <c r="BS8" s="93"/>
+      <c r="BT8" s="93"/>
+      <c r="BU8" s="93"/>
+      <c r="BV8" s="93"/>
+      <c r="BW8" s="93"/>
+      <c r="BX8" s="93"/>
+      <c r="BY8" s="93"/>
+      <c r="BZ8" s="93"/>
+      <c r="CA8" s="93"/>
+      <c r="CB8" s="93"/>
+      <c r="CC8" s="93"/>
+      <c r="CD8" s="93"/>
+      <c r="CE8" s="93"/>
+      <c r="CF8" s="93"/>
+      <c r="CG8" s="93"/>
+      <c r="CH8" s="93"/>
+      <c r="CI8" s="93"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -7143,7 +7137,7 @@
       <c r="AMI8" s="1"/>
       <c r="AMJ8" s="1"/>
     </row>
-    <row r="9" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1025" ht="18" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -8169,7 +8163,7 @@
       <c r="AMI9" s="1"/>
       <c r="AMJ9" s="1"/>
     </row>
-    <row r="10" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1025" ht="18" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -9199,7 +9193,7 @@
       <c r="AMI10" s="1"/>
       <c r="AMJ10" s="1"/>
     </row>
-    <row r="11" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1025" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -10225,7 +10219,7 @@
       <c r="AMI11" s="1"/>
       <c r="AMJ11" s="1"/>
     </row>
-    <row r="12" spans="1:1025" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1025" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -11255,7 +11249,7 @@
       <c r="AMI12" s="1"/>
       <c r="AMJ12" s="1"/>
     </row>
-    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
@@ -12281,7 +12275,7 @@
       <c r="AMI13" s="1"/>
       <c r="AMJ13" s="1"/>
     </row>
-    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -13307,202 +13301,202 @@
       <c r="AMI14" s="1"/>
       <c r="AMJ14" s="1"/>
     </row>
-    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="76" t="s">
+    <row r="15" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="B15" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="79" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="73" t="s">
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="73" t="s">
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="74"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="74"/>
-      <c r="AN15" s="74"/>
-      <c r="AO15" s="74"/>
-      <c r="AP15" s="74"/>
-      <c r="AQ15" s="74"/>
-      <c r="AR15" s="75"/>
-      <c r="AS15" s="78" t="s">
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="83"/>
+      <c r="AN15" s="83"/>
+      <c r="AO15" s="83"/>
+      <c r="AP15" s="83"/>
+      <c r="AQ15" s="83"/>
+      <c r="AR15" s="84"/>
+      <c r="AS15" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="78"/>
-      <c r="AZ15" s="78"/>
-      <c r="BA15" s="78"/>
-      <c r="BB15" s="78"/>
-      <c r="BC15" s="78"/>
-      <c r="BD15" s="78"/>
-      <c r="BE15" s="78"/>
-      <c r="BF15" s="78"/>
-      <c r="BG15" s="78"/>
-      <c r="BH15" s="78"/>
-      <c r="BI15" s="78"/>
-      <c r="BJ15" s="78"/>
-      <c r="BK15" s="78"/>
-      <c r="BL15" s="78"/>
-      <c r="BM15" s="78"/>
-      <c r="BN15" s="78"/>
-      <c r="BO15" s="78"/>
-      <c r="BP15" s="78"/>
-      <c r="BQ15" s="78"/>
-      <c r="BR15" s="78"/>
-      <c r="BS15" s="78"/>
-      <c r="BT15" s="78"/>
-      <c r="BU15" s="78"/>
-      <c r="BV15" s="78"/>
-      <c r="BW15" s="78"/>
-      <c r="BX15" s="78"/>
-      <c r="BY15" s="78"/>
-      <c r="BZ15" s="78"/>
-      <c r="CA15" s="78"/>
-      <c r="CB15" s="78"/>
-      <c r="CC15" s="78"/>
-      <c r="CD15" s="78"/>
-      <c r="CE15" s="78"/>
-      <c r="CF15" s="78"/>
-      <c r="CG15" s="78"/>
-      <c r="CH15" s="78"/>
-      <c r="CI15" s="78"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="91"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="91"/>
+      <c r="BD15" s="91"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="91"/>
+      <c r="BG15" s="91"/>
+      <c r="BH15" s="91"/>
+      <c r="BI15" s="91"/>
+      <c r="BJ15" s="91"/>
+      <c r="BK15" s="91"/>
+      <c r="BL15" s="91"/>
+      <c r="BM15" s="91"/>
+      <c r="BN15" s="91"/>
+      <c r="BO15" s="91"/>
+      <c r="BP15" s="91"/>
+      <c r="BQ15" s="91"/>
+      <c r="BR15" s="91"/>
+      <c r="BS15" s="91"/>
+      <c r="BT15" s="91"/>
+      <c r="BU15" s="91"/>
+      <c r="BV15" s="91"/>
+      <c r="BW15" s="91"/>
+      <c r="BX15" s="91"/>
+      <c r="BY15" s="91"/>
+      <c r="BZ15" s="91"/>
+      <c r="CA15" s="91"/>
+      <c r="CB15" s="91"/>
+      <c r="CC15" s="91"/>
+      <c r="CD15" s="91"/>
+      <c r="CE15" s="91"/>
+      <c r="CF15" s="91"/>
+      <c r="CG15" s="91"/>
+      <c r="CH15" s="91"/>
+      <c r="CI15" s="91"/>
     </row>
-    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="71">
-        <v>2</v>
+      <c r="B16" s="85">
+        <v>3</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="80" t="s">
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="42" t="s">
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="81"/>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="42" t="s">
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="81"/>
-      <c r="AL16" s="81"/>
-      <c r="AM16" s="81"/>
-      <c r="AN16" s="81"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="81"/>
-      <c r="AQ16" s="81"/>
-      <c r="AR16" s="82"/>
-      <c r="AS16" s="72" t="s">
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="72"/>
-      <c r="BB16" s="72"/>
-      <c r="BC16" s="72"/>
-      <c r="BD16" s="72"/>
-      <c r="BE16" s="72"/>
-      <c r="BF16" s="72"/>
-      <c r="BG16" s="72"/>
-      <c r="BH16" s="72"/>
-      <c r="BI16" s="72"/>
-      <c r="BJ16" s="72"/>
-      <c r="BK16" s="72"/>
-      <c r="BL16" s="72"/>
-      <c r="BM16" s="72"/>
-      <c r="BN16" s="72"/>
-      <c r="BO16" s="72"/>
-      <c r="BP16" s="72"/>
-      <c r="BQ16" s="72"/>
-      <c r="BR16" s="72"/>
-      <c r="BS16" s="72"/>
-      <c r="BT16" s="72"/>
-      <c r="BU16" s="72"/>
-      <c r="BV16" s="72"/>
-      <c r="BW16" s="72"/>
-      <c r="BX16" s="72"/>
-      <c r="BY16" s="72"/>
-      <c r="BZ16" s="72"/>
-      <c r="CA16" s="72"/>
-      <c r="CB16" s="72"/>
-      <c r="CC16" s="72"/>
-      <c r="CD16" s="72"/>
-      <c r="CE16" s="72"/>
-      <c r="CF16" s="72"/>
-      <c r="CG16" s="72"/>
-      <c r="CH16" s="72"/>
-      <c r="CI16" s="72"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="93"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="93"/>
+      <c r="BG16" s="93"/>
+      <c r="BH16" s="93"/>
+      <c r="BI16" s="93"/>
+      <c r="BJ16" s="93"/>
+      <c r="BK16" s="93"/>
+      <c r="BL16" s="93"/>
+      <c r="BM16" s="93"/>
+      <c r="BN16" s="93"/>
+      <c r="BO16" s="93"/>
+      <c r="BP16" s="93"/>
+      <c r="BQ16" s="93"/>
+      <c r="BR16" s="93"/>
+      <c r="BS16" s="93"/>
+      <c r="BT16" s="93"/>
+      <c r="BU16" s="93"/>
+      <c r="BV16" s="93"/>
+      <c r="BW16" s="93"/>
+      <c r="BX16" s="93"/>
+      <c r="BY16" s="93"/>
+      <c r="BZ16" s="93"/>
+      <c r="CA16" s="93"/>
+      <c r="CB16" s="93"/>
+      <c r="CC16" s="93"/>
+      <c r="CD16" s="93"/>
+      <c r="CE16" s="93"/>
+      <c r="CF16" s="93"/>
+      <c r="CG16" s="93"/>
+      <c r="CH16" s="93"/>
+      <c r="CI16" s="93"/>
       <c r="CJ16" s="1"/>
       <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
@@ -14441,7 +14435,7 @@
       <c r="AMI16" s="1"/>
       <c r="AMJ16" s="1"/>
     </row>
-    <row r="17" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="21"/>
@@ -14530,9 +14524,9 @@
       <c r="CI17" s="9"/>
       <c r="AMK17" s="6"/>
     </row>
-    <row r="18" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B18" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -14542,7 +14536,6 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
@@ -14621,7 +14614,7 @@
       <c r="CI18" s="30"/>
       <c r="AMK18" s="6"/>
     </row>
-    <row r="19" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="22"/>
@@ -14710,75 +14703,75 @@
       <c r="CI19" s="15"/>
       <c r="AMK19" s="6"/>
     </row>
-    <row r="20" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="22"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85" t="s">
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="45" t="s">
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="43"/>
-      <c r="AJ20" s="43"/>
-      <c r="AK20" s="43"/>
-      <c r="AL20" s="43"/>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="43"/>
-      <c r="AP20" s="43"/>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="43"/>
-      <c r="AS20" s="43"/>
-      <c r="AT20" s="43"/>
-      <c r="AU20" s="43"/>
-      <c r="AV20" s="43"/>
-      <c r="AW20" s="43"/>
-      <c r="AX20" s="43"/>
-      <c r="AY20" s="43"/>
-      <c r="AZ20" s="43"/>
-      <c r="BA20" s="43"/>
-      <c r="BB20" s="43"/>
-      <c r="BC20" s="43"/>
-      <c r="BD20" s="43"/>
-      <c r="BE20" s="43"/>
-      <c r="BF20" s="43"/>
-      <c r="BG20" s="43"/>
-      <c r="BH20" s="43"/>
-      <c r="BI20" s="43"/>
-      <c r="BJ20" s="43"/>
-      <c r="BK20" s="44"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="73"/>
+      <c r="BA20" s="73"/>
+      <c r="BB20" s="73"/>
+      <c r="BC20" s="73"/>
+      <c r="BD20" s="73"/>
+      <c r="BE20" s="73"/>
+      <c r="BF20" s="73"/>
+      <c r="BG20" s="73"/>
+      <c r="BH20" s="73"/>
+      <c r="BI20" s="73"/>
+      <c r="BJ20" s="73"/>
+      <c r="BK20" s="74"/>
       <c r="BL20" s="22"/>
       <c r="BM20" s="22"/>
       <c r="BN20" s="22"/>
@@ -14805,75 +14798,75 @@
       <c r="CI20" s="15"/>
       <c r="AMK20" s="6"/>
     </row>
-    <row r="21" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="22"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="42">
+      <c r="G21" s="47">
         <v>1</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="42" t="s">
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="42" t="s">
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="81"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="81"/>
-      <c r="AO21" s="81"/>
-      <c r="AP21" s="81"/>
-      <c r="AQ21" s="81"/>
-      <c r="AR21" s="81"/>
-      <c r="AS21" s="81"/>
-      <c r="AT21" s="81"/>
-      <c r="AU21" s="81"/>
-      <c r="AV21" s="81"/>
-      <c r="AW21" s="81"/>
-      <c r="AX21" s="81"/>
-      <c r="AY21" s="81"/>
-      <c r="AZ21" s="81"/>
-      <c r="BA21" s="81"/>
-      <c r="BB21" s="81"/>
-      <c r="BC21" s="81"/>
-      <c r="BD21" s="81"/>
-      <c r="BE21" s="81"/>
-      <c r="BF21" s="81"/>
-      <c r="BG21" s="81"/>
-      <c r="BH21" s="81"/>
-      <c r="BI21" s="81"/>
-      <c r="BJ21" s="81"/>
-      <c r="BK21" s="82"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="48"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="48"/>
+      <c r="BC21" s="48"/>
+      <c r="BD21" s="48"/>
+      <c r="BE21" s="48"/>
+      <c r="BF21" s="48"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="48"/>
+      <c r="BI21" s="48"/>
+      <c r="BJ21" s="48"/>
+      <c r="BK21" s="56"/>
       <c r="BL21" s="22"/>
       <c r="BM21" s="22"/>
       <c r="BN21" s="22"/>
@@ -14900,75 +14893,75 @@
       <c r="CI21" s="15"/>
       <c r="AMK21" s="6"/>
     </row>
-    <row r="22" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="22"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="92">
+      <c r="G22" s="86">
         <v>2</v>
       </c>
-      <c r="H22" s="93"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="89" t="s">
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="89" t="s">
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="90"/>
-      <c r="AK22" s="90"/>
-      <c r="AL22" s="90"/>
-      <c r="AM22" s="90"/>
-      <c r="AN22" s="90"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="90"/>
-      <c r="AQ22" s="90"/>
-      <c r="AR22" s="90"/>
-      <c r="AS22" s="90"/>
-      <c r="AT22" s="90"/>
-      <c r="AU22" s="90"/>
-      <c r="AV22" s="90"/>
-      <c r="AW22" s="90"/>
-      <c r="AX22" s="90"/>
-      <c r="AY22" s="90"/>
-      <c r="AZ22" s="90"/>
-      <c r="BA22" s="90"/>
-      <c r="BB22" s="90"/>
-      <c r="BC22" s="90"/>
-      <c r="BD22" s="90"/>
-      <c r="BE22" s="90"/>
-      <c r="BF22" s="90"/>
-      <c r="BG22" s="90"/>
-      <c r="BH22" s="90"/>
-      <c r="BI22" s="90"/>
-      <c r="BJ22" s="90"/>
-      <c r="BK22" s="91"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="58"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="58"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="58"/>
+      <c r="AK22" s="58"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="58"/>
+      <c r="AS22" s="58"/>
+      <c r="AT22" s="58"/>
+      <c r="AU22" s="58"/>
+      <c r="AV22" s="58"/>
+      <c r="AW22" s="58"/>
+      <c r="AX22" s="58"/>
+      <c r="AY22" s="58"/>
+      <c r="AZ22" s="58"/>
+      <c r="BA22" s="58"/>
+      <c r="BB22" s="58"/>
+      <c r="BC22" s="58"/>
+      <c r="BD22" s="58"/>
+      <c r="BE22" s="58"/>
+      <c r="BF22" s="58"/>
+      <c r="BG22" s="58"/>
+      <c r="BH22" s="58"/>
+      <c r="BI22" s="58"/>
+      <c r="BJ22" s="58"/>
+      <c r="BK22" s="59"/>
       <c r="BL22" s="22"/>
       <c r="BM22" s="22"/>
       <c r="BN22" s="22"/>
@@ -14995,75 +14988,75 @@
       <c r="CI22" s="15"/>
       <c r="AMK22" s="6"/>
     </row>
-    <row r="23" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B23" s="10"/>
       <c r="C23" s="26"/>
       <c r="D23" s="22"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="42">
+      <c r="G23" s="47">
         <v>3</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="42" t="s">
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="42" t="s">
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="81"/>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="81"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="81"/>
-      <c r="AO23" s="81"/>
-      <c r="AP23" s="81"/>
-      <c r="AQ23" s="81"/>
-      <c r="AR23" s="81"/>
-      <c r="AS23" s="81"/>
-      <c r="AT23" s="81"/>
-      <c r="AU23" s="81"/>
-      <c r="AV23" s="81"/>
-      <c r="AW23" s="81"/>
-      <c r="AX23" s="81"/>
-      <c r="AY23" s="81"/>
-      <c r="AZ23" s="81"/>
-      <c r="BA23" s="81"/>
-      <c r="BB23" s="81"/>
-      <c r="BC23" s="81"/>
-      <c r="BD23" s="81"/>
-      <c r="BE23" s="81"/>
-      <c r="BF23" s="81"/>
-      <c r="BG23" s="81"/>
-      <c r="BH23" s="81"/>
-      <c r="BI23" s="81"/>
-      <c r="BJ23" s="81"/>
-      <c r="BK23" s="82"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="48"/>
+      <c r="AT23" s="48"/>
+      <c r="AU23" s="48"/>
+      <c r="AV23" s="48"/>
+      <c r="AW23" s="48"/>
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="48"/>
+      <c r="AZ23" s="48"/>
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="48"/>
+      <c r="BC23" s="48"/>
+      <c r="BD23" s="48"/>
+      <c r="BE23" s="48"/>
+      <c r="BF23" s="48"/>
+      <c r="BG23" s="48"/>
+      <c r="BH23" s="48"/>
+      <c r="BI23" s="48"/>
+      <c r="BJ23" s="48"/>
+      <c r="BK23" s="56"/>
       <c r="BL23" s="22"/>
       <c r="BM23" s="22"/>
       <c r="BN23" s="22"/>
@@ -15090,75 +15083,75 @@
       <c r="CI23" s="15"/>
       <c r="AMK23" s="6"/>
     </row>
-    <row r="24" spans="2:1023 1025:1025" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:1023 1025:1025" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="B24" s="10"/>
       <c r="C24" s="26"/>
       <c r="D24" s="22"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="92">
+      <c r="G24" s="86">
         <v>4</v>
       </c>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="89" t="s">
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="89" t="s">
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="90"/>
-      <c r="AL24" s="90"/>
-      <c r="AM24" s="90"/>
-      <c r="AN24" s="90"/>
-      <c r="AO24" s="90"/>
-      <c r="AP24" s="90"/>
-      <c r="AQ24" s="90"/>
-      <c r="AR24" s="90"/>
-      <c r="AS24" s="90"/>
-      <c r="AT24" s="90"/>
-      <c r="AU24" s="90"/>
-      <c r="AV24" s="90"/>
-      <c r="AW24" s="90"/>
-      <c r="AX24" s="90"/>
-      <c r="AY24" s="90"/>
-      <c r="AZ24" s="90"/>
-      <c r="BA24" s="90"/>
-      <c r="BB24" s="90"/>
-      <c r="BC24" s="90"/>
-      <c r="BD24" s="90"/>
-      <c r="BE24" s="90"/>
-      <c r="BF24" s="90"/>
-      <c r="BG24" s="90"/>
-      <c r="BH24" s="90"/>
-      <c r="BI24" s="90"/>
-      <c r="BJ24" s="90"/>
-      <c r="BK24" s="91"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="58"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="58"/>
+      <c r="AK24" s="58"/>
+      <c r="AL24" s="58"/>
+      <c r="AM24" s="58"/>
+      <c r="AN24" s="58"/>
+      <c r="AO24" s="58"/>
+      <c r="AP24" s="58"/>
+      <c r="AQ24" s="58"/>
+      <c r="AR24" s="58"/>
+      <c r="AS24" s="58"/>
+      <c r="AT24" s="58"/>
+      <c r="AU24" s="58"/>
+      <c r="AV24" s="58"/>
+      <c r="AW24" s="58"/>
+      <c r="AX24" s="58"/>
+      <c r="AY24" s="58"/>
+      <c r="AZ24" s="58"/>
+      <c r="BA24" s="58"/>
+      <c r="BB24" s="58"/>
+      <c r="BC24" s="58"/>
+      <c r="BD24" s="58"/>
+      <c r="BE24" s="58"/>
+      <c r="BF24" s="58"/>
+      <c r="BG24" s="58"/>
+      <c r="BH24" s="58"/>
+      <c r="BI24" s="58"/>
+      <c r="BJ24" s="58"/>
+      <c r="BK24" s="59"/>
       <c r="BL24" s="22"/>
       <c r="BM24" s="22"/>
       <c r="BN24" s="22"/>
@@ -15185,15 +15178,15 @@
       <c r="CI24" s="15"/>
       <c r="AMK24" s="33"/>
     </row>
-    <row r="25" spans="2:1023 1025:1025" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:1023 1025:1025" s="31" customFormat="1" ht="18" customHeight="1">
       <c r="B25" s="10"/>
       <c r="C25" s="26"/>
       <c r="D25" s="22"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
@@ -15274,7 +15267,7 @@
       <c r="CI25" s="15"/>
       <c r="AMK25" s="33"/>
     </row>
-    <row r="26" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B26" s="10"/>
       <c r="C26" s="26"/>
       <c r="D26" s="22"/>
@@ -15338,7 +15331,7 @@
       <c r="BH26" s="23"/>
       <c r="BI26" s="23"/>
       <c r="BJ26" s="23"/>
-      <c r="BK26" s="98"/>
+      <c r="BK26" s="42"/>
       <c r="BL26" s="23"/>
       <c r="BM26" s="23"/>
       <c r="BN26" s="22"/>
@@ -15365,7 +15358,7 @@
       <c r="CI26" s="15"/>
       <c r="AMI26" s="6"/>
     </row>
-    <row r="27" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B27" s="10"/>
       <c r="C27" s="26"/>
       <c r="D27" s="22"/>
@@ -15427,7 +15420,7 @@
       <c r="BH27" s="23"/>
       <c r="BI27" s="23"/>
       <c r="BJ27" s="23"/>
-      <c r="BK27" s="98"/>
+      <c r="BK27" s="42"/>
       <c r="BL27" s="23"/>
       <c r="BM27" s="23"/>
       <c r="BN27" s="22"/>
@@ -15454,75 +15447,75 @@
       <c r="CI27" s="15"/>
       <c r="AMI27" s="6"/>
     </row>
-    <row r="28" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B28" s="10"/>
       <c r="C28" s="26"/>
       <c r="D28" s="22"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="85" t="s">
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="45" t="s">
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="95"/>
-      <c r="AJ28" s="95"/>
-      <c r="AK28" s="95"/>
-      <c r="AL28" s="95"/>
-      <c r="AM28" s="95"/>
-      <c r="AN28" s="95"/>
-      <c r="AO28" s="95"/>
-      <c r="AP28" s="95"/>
-      <c r="AQ28" s="95"/>
-      <c r="AR28" s="95"/>
-      <c r="AS28" s="95"/>
-      <c r="AT28" s="95"/>
-      <c r="AU28" s="95"/>
-      <c r="AV28" s="95"/>
-      <c r="AW28" s="95"/>
-      <c r="AX28" s="95"/>
-      <c r="AY28" s="95"/>
-      <c r="AZ28" s="95"/>
-      <c r="BA28" s="95"/>
-      <c r="BB28" s="95"/>
-      <c r="BC28" s="95"/>
-      <c r="BD28" s="95"/>
-      <c r="BE28" s="95"/>
-      <c r="BF28" s="95"/>
-      <c r="BG28" s="95"/>
-      <c r="BH28" s="95"/>
-      <c r="BI28" s="95"/>
-      <c r="BJ28" s="95"/>
-      <c r="BK28" s="96"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="71"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="71"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="71"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="71"/>
+      <c r="AN28" s="71"/>
+      <c r="AO28" s="71"/>
+      <c r="AP28" s="71"/>
+      <c r="AQ28" s="71"/>
+      <c r="AR28" s="71"/>
+      <c r="AS28" s="71"/>
+      <c r="AT28" s="71"/>
+      <c r="AU28" s="71"/>
+      <c r="AV28" s="71"/>
+      <c r="AW28" s="71"/>
+      <c r="AX28" s="71"/>
+      <c r="AY28" s="71"/>
+      <c r="AZ28" s="71"/>
+      <c r="BA28" s="71"/>
+      <c r="BB28" s="71"/>
+      <c r="BC28" s="71"/>
+      <c r="BD28" s="71"/>
+      <c r="BE28" s="71"/>
+      <c r="BF28" s="71"/>
+      <c r="BG28" s="71"/>
+      <c r="BH28" s="71"/>
+      <c r="BI28" s="71"/>
+      <c r="BJ28" s="71"/>
+      <c r="BK28" s="72"/>
       <c r="BL28" s="23"/>
       <c r="BM28" s="23"/>
       <c r="BN28" s="22"/>
@@ -15549,75 +15542,75 @@
       <c r="CI28" s="15"/>
       <c r="AMI28" s="6"/>
     </row>
-    <row r="29" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B29" s="10"/>
       <c r="C29" s="26"/>
       <c r="D29" s="22"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="42">
+      <c r="G29" s="47">
         <v>1</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="42" t="s">
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="42" t="s">
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="81"/>
-      <c r="AH29" s="81"/>
-      <c r="AI29" s="81"/>
-      <c r="AJ29" s="81"/>
-      <c r="AK29" s="81"/>
-      <c r="AL29" s="81"/>
-      <c r="AM29" s="81"/>
-      <c r="AN29" s="81"/>
-      <c r="AO29" s="81"/>
-      <c r="AP29" s="81"/>
-      <c r="AQ29" s="81"/>
-      <c r="AR29" s="81"/>
-      <c r="AS29" s="81"/>
-      <c r="AT29" s="81"/>
-      <c r="AU29" s="81"/>
-      <c r="AV29" s="81"/>
-      <c r="AW29" s="81"/>
-      <c r="AX29" s="81"/>
-      <c r="AY29" s="81"/>
-      <c r="AZ29" s="81"/>
-      <c r="BA29" s="81"/>
-      <c r="BB29" s="81"/>
-      <c r="BC29" s="81"/>
-      <c r="BD29" s="81"/>
-      <c r="BE29" s="81"/>
-      <c r="BF29" s="81"/>
-      <c r="BG29" s="81"/>
-      <c r="BH29" s="81"/>
-      <c r="BI29" s="81"/>
-      <c r="BJ29" s="81"/>
-      <c r="BK29" s="82"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="48"/>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="48"/>
+      <c r="AS29" s="48"/>
+      <c r="AT29" s="48"/>
+      <c r="AU29" s="48"/>
+      <c r="AV29" s="48"/>
+      <c r="AW29" s="48"/>
+      <c r="AX29" s="48"/>
+      <c r="AY29" s="48"/>
+      <c r="AZ29" s="48"/>
+      <c r="BA29" s="48"/>
+      <c r="BB29" s="48"/>
+      <c r="BC29" s="48"/>
+      <c r="BD29" s="48"/>
+      <c r="BE29" s="48"/>
+      <c r="BF29" s="48"/>
+      <c r="BG29" s="48"/>
+      <c r="BH29" s="48"/>
+      <c r="BI29" s="48"/>
+      <c r="BJ29" s="48"/>
+      <c r="BK29" s="56"/>
       <c r="BL29" s="23"/>
       <c r="BM29" s="23"/>
       <c r="BN29" s="22"/>
@@ -15644,75 +15637,75 @@
       <c r="CI29" s="15"/>
       <c r="AMI29" s="6"/>
     </row>
-    <row r="30" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B30" s="10"/>
       <c r="C30" s="26"/>
       <c r="D30" s="22"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="42">
+      <c r="G30" s="47">
         <v>2</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="42" t="s">
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="42" t="s">
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="81"/>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="81"/>
-      <c r="AF30" s="81"/>
-      <c r="AG30" s="81"/>
-      <c r="AH30" s="81"/>
-      <c r="AI30" s="81"/>
-      <c r="AJ30" s="81"/>
-      <c r="AK30" s="81"/>
-      <c r="AL30" s="81"/>
-      <c r="AM30" s="81"/>
-      <c r="AN30" s="81"/>
-      <c r="AO30" s="81"/>
-      <c r="AP30" s="81"/>
-      <c r="AQ30" s="81"/>
-      <c r="AR30" s="81"/>
-      <c r="AS30" s="81"/>
-      <c r="AT30" s="81"/>
-      <c r="AU30" s="81"/>
-      <c r="AV30" s="81"/>
-      <c r="AW30" s="81"/>
-      <c r="AX30" s="81"/>
-      <c r="AY30" s="81"/>
-      <c r="AZ30" s="81"/>
-      <c r="BA30" s="81"/>
-      <c r="BB30" s="81"/>
-      <c r="BC30" s="81"/>
-      <c r="BD30" s="81"/>
-      <c r="BE30" s="81"/>
-      <c r="BF30" s="81"/>
-      <c r="BG30" s="81"/>
-      <c r="BH30" s="81"/>
-      <c r="BI30" s="81"/>
-      <c r="BJ30" s="81"/>
-      <c r="BK30" s="82"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="48"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="48"/>
+      <c r="AP30" s="48"/>
+      <c r="AQ30" s="48"/>
+      <c r="AR30" s="48"/>
+      <c r="AS30" s="48"/>
+      <c r="AT30" s="48"/>
+      <c r="AU30" s="48"/>
+      <c r="AV30" s="48"/>
+      <c r="AW30" s="48"/>
+      <c r="AX30" s="48"/>
+      <c r="AY30" s="48"/>
+      <c r="AZ30" s="48"/>
+      <c r="BA30" s="48"/>
+      <c r="BB30" s="48"/>
+      <c r="BC30" s="48"/>
+      <c r="BD30" s="48"/>
+      <c r="BE30" s="48"/>
+      <c r="BF30" s="48"/>
+      <c r="BG30" s="48"/>
+      <c r="BH30" s="48"/>
+      <c r="BI30" s="48"/>
+      <c r="BJ30" s="48"/>
+      <c r="BK30" s="56"/>
       <c r="BL30" s="23"/>
       <c r="BM30" s="23"/>
       <c r="BN30" s="22"/>
@@ -15739,75 +15732,75 @@
       <c r="CI30" s="15"/>
       <c r="AMI30" s="6"/>
     </row>
-    <row r="31" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B31" s="10"/>
       <c r="C31" s="26"/>
       <c r="D31" s="22"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="42">
+      <c r="G31" s="47">
         <v>3</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="42" t="s">
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="42" t="s">
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="81"/>
-      <c r="AG31" s="81"/>
-      <c r="AH31" s="81"/>
-      <c r="AI31" s="81"/>
-      <c r="AJ31" s="81"/>
-      <c r="AK31" s="81"/>
-      <c r="AL31" s="81"/>
-      <c r="AM31" s="81"/>
-      <c r="AN31" s="81"/>
-      <c r="AO31" s="81"/>
-      <c r="AP31" s="81"/>
-      <c r="AQ31" s="81"/>
-      <c r="AR31" s="81"/>
-      <c r="AS31" s="81"/>
-      <c r="AT31" s="81"/>
-      <c r="AU31" s="81"/>
-      <c r="AV31" s="81"/>
-      <c r="AW31" s="81"/>
-      <c r="AX31" s="81"/>
-      <c r="AY31" s="81"/>
-      <c r="AZ31" s="81"/>
-      <c r="BA31" s="81"/>
-      <c r="BB31" s="81"/>
-      <c r="BC31" s="81"/>
-      <c r="BD31" s="81"/>
-      <c r="BE31" s="81"/>
-      <c r="BF31" s="81"/>
-      <c r="BG31" s="81"/>
-      <c r="BH31" s="81"/>
-      <c r="BI31" s="81"/>
-      <c r="BJ31" s="81"/>
-      <c r="BK31" s="82"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="48"/>
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="48"/>
+      <c r="AO31" s="48"/>
+      <c r="AP31" s="48"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="48"/>
+      <c r="AS31" s="48"/>
+      <c r="AT31" s="48"/>
+      <c r="AU31" s="48"/>
+      <c r="AV31" s="48"/>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="48"/>
+      <c r="AY31" s="48"/>
+      <c r="AZ31" s="48"/>
+      <c r="BA31" s="48"/>
+      <c r="BB31" s="48"/>
+      <c r="BC31" s="48"/>
+      <c r="BD31" s="48"/>
+      <c r="BE31" s="48"/>
+      <c r="BF31" s="48"/>
+      <c r="BG31" s="48"/>
+      <c r="BH31" s="48"/>
+      <c r="BI31" s="48"/>
+      <c r="BJ31" s="48"/>
+      <c r="BK31" s="56"/>
       <c r="BL31" s="22"/>
       <c r="BM31" s="22"/>
       <c r="BN31" s="22"/>
@@ -15834,30 +15827,30 @@
       <c r="CI31" s="15"/>
       <c r="AMI31" s="6"/>
     </row>
-    <row r="32" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:1023 1025:1025" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B32" s="10"/>
       <c r="C32" s="26"/>
       <c r="D32" s="22"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="99"/>
-      <c r="U32" s="99"/>
-      <c r="V32" s="99"/>
-      <c r="W32" s="99"/>
-      <c r="X32" s="99"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
       <c r="AA32" s="26"/>
@@ -15923,99 +15916,99 @@
       <c r="CI32" s="15"/>
       <c r="AMI32" s="6"/>
     </row>
-    <row r="33" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="100" t="s">
-        <v>62</v>
+    <row r="33" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B33" s="53" t="s">
+        <v>61</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="41"/>
-      <c r="AX33" s="41"/>
-      <c r="AY33" s="41"/>
-      <c r="AZ33" s="41"/>
-      <c r="BA33" s="41"/>
-      <c r="BB33" s="41"/>
-      <c r="BC33" s="41"/>
-      <c r="BD33" s="41"/>
-      <c r="BE33" s="41"/>
-      <c r="BF33" s="41"/>
-      <c r="BG33" s="41"/>
-      <c r="BH33" s="41"/>
-      <c r="BI33" s="41"/>
-      <c r="BJ33" s="41"/>
-      <c r="BK33" s="41"/>
-      <c r="BL33" s="41"/>
-      <c r="BM33" s="41"/>
-      <c r="BN33" s="41"/>
-      <c r="BO33" s="41"/>
-      <c r="BP33" s="41"/>
-      <c r="BQ33" s="41"/>
-      <c r="BR33" s="41"/>
-      <c r="BS33" s="41"/>
-      <c r="BT33" s="41"/>
-      <c r="BU33" s="41"/>
-      <c r="BV33" s="41"/>
-      <c r="BW33" s="41"/>
-      <c r="BX33" s="41"/>
-      <c r="BY33" s="41"/>
-      <c r="BZ33" s="41"/>
-      <c r="CA33" s="41"/>
-      <c r="CB33" s="41"/>
-      <c r="CC33" s="41"/>
-      <c r="CD33" s="41"/>
-      <c r="CE33" s="41"/>
-      <c r="CF33" s="41"/>
-      <c r="CG33" s="41"/>
-      <c r="CH33" s="41"/>
-      <c r="CI33" s="101"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="54"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="54"/>
+      <c r="AO33" s="54"/>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="54"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="54"/>
+      <c r="AU33" s="54"/>
+      <c r="AV33" s="54"/>
+      <c r="AW33" s="54"/>
+      <c r="AX33" s="54"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="54"/>
+      <c r="BB33" s="54"/>
+      <c r="BC33" s="54"/>
+      <c r="BD33" s="54"/>
+      <c r="BE33" s="54"/>
+      <c r="BF33" s="54"/>
+      <c r="BG33" s="54"/>
+      <c r="BH33" s="54"/>
+      <c r="BI33" s="54"/>
+      <c r="BJ33" s="54"/>
+      <c r="BK33" s="54"/>
+      <c r="BL33" s="54"/>
+      <c r="BM33" s="54"/>
+      <c r="BN33" s="54"/>
+      <c r="BO33" s="54"/>
+      <c r="BP33" s="54"/>
+      <c r="BQ33" s="54"/>
+      <c r="BR33" s="54"/>
+      <c r="BS33" s="54"/>
+      <c r="BT33" s="54"/>
+      <c r="BU33" s="54"/>
+      <c r="BV33" s="54"/>
+      <c r="BW33" s="54"/>
+      <c r="BX33" s="54"/>
+      <c r="BY33" s="54"/>
+      <c r="BZ33" s="54"/>
+      <c r="CA33" s="54"/>
+      <c r="CB33" s="54"/>
+      <c r="CC33" s="54"/>
+      <c r="CD33" s="54"/>
+      <c r="CE33" s="54"/>
+      <c r="CF33" s="54"/>
+      <c r="CG33" s="54"/>
+      <c r="CH33" s="54"/>
+      <c r="CI33" s="55"/>
       <c r="AMI33" s="6"/>
     </row>
-    <row r="34" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="110"/>
+    <row r="34" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B34" s="45"/>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -16100,101 +16093,101 @@
       <c r="CF34" s="40"/>
       <c r="CG34" s="40"/>
       <c r="CH34" s="40"/>
-      <c r="CI34" s="111"/>
+      <c r="CI34" s="46"/>
       <c r="AMI34" s="6"/>
     </row>
-    <row r="35" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="100" t="s">
-        <v>56</v>
+    <row r="35" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B35" s="53" t="s">
+        <v>62</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41"/>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
-      <c r="BA35" s="41"/>
-      <c r="BB35" s="41"/>
-      <c r="BC35" s="41"/>
-      <c r="BD35" s="41"/>
-      <c r="BE35" s="41"/>
-      <c r="BF35" s="41"/>
-      <c r="BG35" s="41"/>
-      <c r="BH35" s="41"/>
-      <c r="BI35" s="41"/>
-      <c r="BJ35" s="41"/>
-      <c r="BK35" s="41"/>
-      <c r="BL35" s="41"/>
-      <c r="BM35" s="41"/>
-      <c r="BN35" s="41"/>
-      <c r="BO35" s="41"/>
-      <c r="BP35" s="41"/>
-      <c r="BQ35" s="41"/>
-      <c r="BR35" s="41"/>
-      <c r="BS35" s="41"/>
-      <c r="BT35" s="41"/>
-      <c r="BU35" s="41"/>
-      <c r="BV35" s="41"/>
-      <c r="BW35" s="41"/>
-      <c r="BX35" s="41"/>
-      <c r="BY35" s="41"/>
-      <c r="BZ35" s="41"/>
-      <c r="CA35" s="41"/>
-      <c r="CB35" s="41"/>
-      <c r="CC35" s="41"/>
-      <c r="CD35" s="41"/>
-      <c r="CE35" s="41"/>
-      <c r="CF35" s="41"/>
-      <c r="CG35" s="41"/>
-      <c r="CH35" s="41"/>
-      <c r="CI35" s="101"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="54"/>
+      <c r="AK35" s="54"/>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="54"/>
+      <c r="AN35" s="54"/>
+      <c r="AO35" s="54"/>
+      <c r="AP35" s="54"/>
+      <c r="AQ35" s="54"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="54"/>
+      <c r="AT35" s="54"/>
+      <c r="AU35" s="54"/>
+      <c r="AV35" s="54"/>
+      <c r="AW35" s="54"/>
+      <c r="AX35" s="54"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="54"/>
+      <c r="BB35" s="54"/>
+      <c r="BC35" s="54"/>
+      <c r="BD35" s="54"/>
+      <c r="BE35" s="54"/>
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="54"/>
+      <c r="BH35" s="54"/>
+      <c r="BI35" s="54"/>
+      <c r="BJ35" s="54"/>
+      <c r="BK35" s="54"/>
+      <c r="BL35" s="54"/>
+      <c r="BM35" s="54"/>
+      <c r="BN35" s="54"/>
+      <c r="BO35" s="54"/>
+      <c r="BP35" s="54"/>
+      <c r="BQ35" s="54"/>
+      <c r="BR35" s="54"/>
+      <c r="BS35" s="54"/>
+      <c r="BT35" s="54"/>
+      <c r="BU35" s="54"/>
+      <c r="BV35" s="54"/>
+      <c r="BW35" s="54"/>
+      <c r="BX35" s="54"/>
+      <c r="BY35" s="54"/>
+      <c r="BZ35" s="54"/>
+      <c r="CA35" s="54"/>
+      <c r="CB35" s="54"/>
+      <c r="CC35" s="54"/>
+      <c r="CD35" s="54"/>
+      <c r="CE35" s="54"/>
+      <c r="CF35" s="54"/>
+      <c r="CG35" s="54"/>
+      <c r="CH35" s="54"/>
+      <c r="CI35" s="55"/>
       <c r="AMI35" s="6"/>
     </row>
-    <row r="36" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B36" s="10"/>
       <c r="C36" s="26"/>
       <c r="D36" s="22"/>
@@ -16283,75 +16276,75 @@
       <c r="CI36" s="15"/>
       <c r="AMI36" s="6"/>
     </row>
-    <row r="37" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B37" s="10"/>
       <c r="C37" s="26"/>
       <c r="D37" s="22"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="85" t="s">
+      <c r="H37" s="67"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="83"/>
-      <c r="U37" s="83"/>
-      <c r="V37" s="83"/>
-      <c r="W37" s="83"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="45" t="s">
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="95"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
-      <c r="AG37" s="95"/>
-      <c r="AH37" s="95"/>
-      <c r="AI37" s="95"/>
-      <c r="AJ37" s="95"/>
-      <c r="AK37" s="95"/>
-      <c r="AL37" s="95"/>
-      <c r="AM37" s="95"/>
-      <c r="AN37" s="95"/>
-      <c r="AO37" s="95"/>
-      <c r="AP37" s="95"/>
-      <c r="AQ37" s="95"/>
-      <c r="AR37" s="95"/>
-      <c r="AS37" s="95"/>
-      <c r="AT37" s="95"/>
-      <c r="AU37" s="95"/>
-      <c r="AV37" s="95"/>
-      <c r="AW37" s="95"/>
-      <c r="AX37" s="95"/>
-      <c r="AY37" s="95"/>
-      <c r="AZ37" s="95"/>
-      <c r="BA37" s="95"/>
-      <c r="BB37" s="95"/>
-      <c r="BC37" s="95"/>
-      <c r="BD37" s="95"/>
-      <c r="BE37" s="95"/>
-      <c r="BF37" s="95"/>
-      <c r="BG37" s="95"/>
-      <c r="BH37" s="95"/>
-      <c r="BI37" s="95"/>
-      <c r="BJ37" s="95"/>
-      <c r="BK37" s="96"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="71"/>
+      <c r="AD37" s="71"/>
+      <c r="AE37" s="71"/>
+      <c r="AF37" s="71"/>
+      <c r="AG37" s="71"/>
+      <c r="AH37" s="71"/>
+      <c r="AI37" s="71"/>
+      <c r="AJ37" s="71"/>
+      <c r="AK37" s="71"/>
+      <c r="AL37" s="71"/>
+      <c r="AM37" s="71"/>
+      <c r="AN37" s="71"/>
+      <c r="AO37" s="71"/>
+      <c r="AP37" s="71"/>
+      <c r="AQ37" s="71"/>
+      <c r="AR37" s="71"/>
+      <c r="AS37" s="71"/>
+      <c r="AT37" s="71"/>
+      <c r="AU37" s="71"/>
+      <c r="AV37" s="71"/>
+      <c r="AW37" s="71"/>
+      <c r="AX37" s="71"/>
+      <c r="AY37" s="71"/>
+      <c r="AZ37" s="71"/>
+      <c r="BA37" s="71"/>
+      <c r="BB37" s="71"/>
+      <c r="BC37" s="71"/>
+      <c r="BD37" s="71"/>
+      <c r="BE37" s="71"/>
+      <c r="BF37" s="71"/>
+      <c r="BG37" s="71"/>
+      <c r="BH37" s="71"/>
+      <c r="BI37" s="71"/>
+      <c r="BJ37" s="71"/>
+      <c r="BK37" s="72"/>
       <c r="BL37" s="22"/>
       <c r="BM37" s="22"/>
       <c r="BN37" s="22"/>
@@ -16378,75 +16371,75 @@
       <c r="CI37" s="15"/>
       <c r="AMI37" s="6"/>
     </row>
-    <row r="38" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B38" s="10"/>
       <c r="C38" s="26"/>
       <c r="D38" s="22"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="42">
+      <c r="G38" s="47">
         <v>1</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="42" t="s">
+      <c r="H38" s="73"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="42" t="s">
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="Z38" s="81"/>
-      <c r="AA38" s="81"/>
-      <c r="AB38" s="81"/>
-      <c r="AC38" s="81"/>
-      <c r="AD38" s="81"/>
-      <c r="AE38" s="81"/>
-      <c r="AF38" s="81"/>
-      <c r="AG38" s="81"/>
-      <c r="AH38" s="81"/>
-      <c r="AI38" s="81"/>
-      <c r="AJ38" s="81"/>
-      <c r="AK38" s="81"/>
-      <c r="AL38" s="81"/>
-      <c r="AM38" s="81"/>
-      <c r="AN38" s="81"/>
-      <c r="AO38" s="81"/>
-      <c r="AP38" s="81"/>
-      <c r="AQ38" s="81"/>
-      <c r="AR38" s="81"/>
-      <c r="AS38" s="81"/>
-      <c r="AT38" s="81"/>
-      <c r="AU38" s="81"/>
-      <c r="AV38" s="81"/>
-      <c r="AW38" s="81"/>
-      <c r="AX38" s="81"/>
-      <c r="AY38" s="81"/>
-      <c r="AZ38" s="81"/>
-      <c r="BA38" s="81"/>
-      <c r="BB38" s="81"/>
-      <c r="BC38" s="81"/>
-      <c r="BD38" s="81"/>
-      <c r="BE38" s="81"/>
-      <c r="BF38" s="81"/>
-      <c r="BG38" s="81"/>
-      <c r="BH38" s="81"/>
-      <c r="BI38" s="81"/>
-      <c r="BJ38" s="81"/>
-      <c r="BK38" s="82"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="48"/>
+      <c r="AK38" s="48"/>
+      <c r="AL38" s="48"/>
+      <c r="AM38" s="48"/>
+      <c r="AN38" s="48"/>
+      <c r="AO38" s="48"/>
+      <c r="AP38" s="48"/>
+      <c r="AQ38" s="48"/>
+      <c r="AR38" s="48"/>
+      <c r="AS38" s="48"/>
+      <c r="AT38" s="48"/>
+      <c r="AU38" s="48"/>
+      <c r="AV38" s="48"/>
+      <c r="AW38" s="48"/>
+      <c r="AX38" s="48"/>
+      <c r="AY38" s="48"/>
+      <c r="AZ38" s="48"/>
+      <c r="BA38" s="48"/>
+      <c r="BB38" s="48"/>
+      <c r="BC38" s="48"/>
+      <c r="BD38" s="48"/>
+      <c r="BE38" s="48"/>
+      <c r="BF38" s="48"/>
+      <c r="BG38" s="48"/>
+      <c r="BH38" s="48"/>
+      <c r="BI38" s="48"/>
+      <c r="BJ38" s="48"/>
+      <c r="BK38" s="56"/>
       <c r="BL38" s="22"/>
       <c r="BM38" s="22"/>
       <c r="BN38" s="22"/>
@@ -16473,75 +16466,75 @@
       <c r="CI38" s="15"/>
       <c r="AMI38" s="6"/>
     </row>
-    <row r="39" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B39" s="10"/>
       <c r="C39" s="26"/>
       <c r="D39" s="22"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="92">
+      <c r="G39" s="86">
         <v>2</v>
       </c>
-      <c r="H39" s="93"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="89" t="s">
+      <c r="H39" s="87"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
-      <c r="V39" s="90"/>
-      <c r="W39" s="90"/>
-      <c r="X39" s="91"/>
-      <c r="Y39" s="89" t="s">
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="Z39" s="90"/>
-      <c r="AA39" s="90"/>
-      <c r="AB39" s="90"/>
-      <c r="AC39" s="90"/>
-      <c r="AD39" s="90"/>
-      <c r="AE39" s="90"/>
-      <c r="AF39" s="90"/>
-      <c r="AG39" s="90"/>
-      <c r="AH39" s="90"/>
-      <c r="AI39" s="90"/>
-      <c r="AJ39" s="90"/>
-      <c r="AK39" s="90"/>
-      <c r="AL39" s="90"/>
-      <c r="AM39" s="90"/>
-      <c r="AN39" s="90"/>
-      <c r="AO39" s="90"/>
-      <c r="AP39" s="90"/>
-      <c r="AQ39" s="90"/>
-      <c r="AR39" s="90"/>
-      <c r="AS39" s="90"/>
-      <c r="AT39" s="90"/>
-      <c r="AU39" s="90"/>
-      <c r="AV39" s="90"/>
-      <c r="AW39" s="90"/>
-      <c r="AX39" s="90"/>
-      <c r="AY39" s="90"/>
-      <c r="AZ39" s="90"/>
-      <c r="BA39" s="90"/>
-      <c r="BB39" s="90"/>
-      <c r="BC39" s="90"/>
-      <c r="BD39" s="90"/>
-      <c r="BE39" s="90"/>
-      <c r="BF39" s="90"/>
-      <c r="BG39" s="90"/>
-      <c r="BH39" s="90"/>
-      <c r="BI39" s="90"/>
-      <c r="BJ39" s="90"/>
-      <c r="BK39" s="91"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="58"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="58"/>
+      <c r="AP39" s="58"/>
+      <c r="AQ39" s="58"/>
+      <c r="AR39" s="58"/>
+      <c r="AS39" s="58"/>
+      <c r="AT39" s="58"/>
+      <c r="AU39" s="58"/>
+      <c r="AV39" s="58"/>
+      <c r="AW39" s="58"/>
+      <c r="AX39" s="58"/>
+      <c r="AY39" s="58"/>
+      <c r="AZ39" s="58"/>
+      <c r="BA39" s="58"/>
+      <c r="BB39" s="58"/>
+      <c r="BC39" s="58"/>
+      <c r="BD39" s="58"/>
+      <c r="BE39" s="58"/>
+      <c r="BF39" s="58"/>
+      <c r="BG39" s="58"/>
+      <c r="BH39" s="58"/>
+      <c r="BI39" s="58"/>
+      <c r="BJ39" s="58"/>
+      <c r="BK39" s="59"/>
       <c r="BL39" s="22"/>
       <c r="BM39" s="22"/>
       <c r="BN39" s="22"/>
@@ -16568,75 +16561,75 @@
       <c r="CI39" s="15"/>
       <c r="AMI39" s="6"/>
     </row>
-    <row r="40" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B40" s="10"/>
       <c r="C40" s="26"/>
       <c r="D40" s="22"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
-      <c r="G40" s="42">
+      <c r="G40" s="47">
         <v>3</v>
       </c>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="42" t="s">
+      <c r="H40" s="73"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="42" t="s">
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="74"/>
+      <c r="Y40" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Z40" s="81"/>
-      <c r="AA40" s="81"/>
-      <c r="AB40" s="81"/>
-      <c r="AC40" s="81"/>
-      <c r="AD40" s="81"/>
-      <c r="AE40" s="81"/>
-      <c r="AF40" s="81"/>
-      <c r="AG40" s="81"/>
-      <c r="AH40" s="81"/>
-      <c r="AI40" s="81"/>
-      <c r="AJ40" s="81"/>
-      <c r="AK40" s="81"/>
-      <c r="AL40" s="81"/>
-      <c r="AM40" s="81"/>
-      <c r="AN40" s="81"/>
-      <c r="AO40" s="81"/>
-      <c r="AP40" s="81"/>
-      <c r="AQ40" s="81"/>
-      <c r="AR40" s="81"/>
-      <c r="AS40" s="81"/>
-      <c r="AT40" s="81"/>
-      <c r="AU40" s="81"/>
-      <c r="AV40" s="81"/>
-      <c r="AW40" s="81"/>
-      <c r="AX40" s="81"/>
-      <c r="AY40" s="81"/>
-      <c r="AZ40" s="81"/>
-      <c r="BA40" s="81"/>
-      <c r="BB40" s="81"/>
-      <c r="BC40" s="81"/>
-      <c r="BD40" s="81"/>
-      <c r="BE40" s="81"/>
-      <c r="BF40" s="81"/>
-      <c r="BG40" s="81"/>
-      <c r="BH40" s="81"/>
-      <c r="BI40" s="81"/>
-      <c r="BJ40" s="81"/>
-      <c r="BK40" s="82"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="48"/>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="48"/>
+      <c r="AG40" s="48"/>
+      <c r="AH40" s="48"/>
+      <c r="AI40" s="48"/>
+      <c r="AJ40" s="48"/>
+      <c r="AK40" s="48"/>
+      <c r="AL40" s="48"/>
+      <c r="AM40" s="48"/>
+      <c r="AN40" s="48"/>
+      <c r="AO40" s="48"/>
+      <c r="AP40" s="48"/>
+      <c r="AQ40" s="48"/>
+      <c r="AR40" s="48"/>
+      <c r="AS40" s="48"/>
+      <c r="AT40" s="48"/>
+      <c r="AU40" s="48"/>
+      <c r="AV40" s="48"/>
+      <c r="AW40" s="48"/>
+      <c r="AX40" s="48"/>
+      <c r="AY40" s="48"/>
+      <c r="AZ40" s="48"/>
+      <c r="BA40" s="48"/>
+      <c r="BB40" s="48"/>
+      <c r="BC40" s="48"/>
+      <c r="BD40" s="48"/>
+      <c r="BE40" s="48"/>
+      <c r="BF40" s="48"/>
+      <c r="BG40" s="48"/>
+      <c r="BH40" s="48"/>
+      <c r="BI40" s="48"/>
+      <c r="BJ40" s="48"/>
+      <c r="BK40" s="56"/>
       <c r="BL40" s="22"/>
       <c r="BM40" s="22"/>
       <c r="BN40" s="22"/>
@@ -16663,75 +16656,75 @@
       <c r="CI40" s="15"/>
       <c r="AMI40" s="6"/>
     </row>
-    <row r="41" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B41" s="10"/>
       <c r="C41" s="26"/>
       <c r="D41" s="22"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="92">
+      <c r="G41" s="86">
         <v>4</v>
       </c>
-      <c r="H41" s="93"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="89" t="s">
+      <c r="H41" s="87"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
-      <c r="V41" s="90"/>
-      <c r="W41" s="90"/>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="89" t="s">
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="Z41" s="90"/>
-      <c r="AA41" s="90"/>
-      <c r="AB41" s="90"/>
-      <c r="AC41" s="90"/>
-      <c r="AD41" s="90"/>
-      <c r="AE41" s="90"/>
-      <c r="AF41" s="90"/>
-      <c r="AG41" s="90"/>
-      <c r="AH41" s="90"/>
-      <c r="AI41" s="90"/>
-      <c r="AJ41" s="90"/>
-      <c r="AK41" s="90"/>
-      <c r="AL41" s="90"/>
-      <c r="AM41" s="90"/>
-      <c r="AN41" s="90"/>
-      <c r="AO41" s="90"/>
-      <c r="AP41" s="90"/>
-      <c r="AQ41" s="90"/>
-      <c r="AR41" s="90"/>
-      <c r="AS41" s="90"/>
-      <c r="AT41" s="90"/>
-      <c r="AU41" s="90"/>
-      <c r="AV41" s="90"/>
-      <c r="AW41" s="90"/>
-      <c r="AX41" s="90"/>
-      <c r="AY41" s="90"/>
-      <c r="AZ41" s="90"/>
-      <c r="BA41" s="90"/>
-      <c r="BB41" s="90"/>
-      <c r="BC41" s="90"/>
-      <c r="BD41" s="90"/>
-      <c r="BE41" s="90"/>
-      <c r="BF41" s="90"/>
-      <c r="BG41" s="90"/>
-      <c r="BH41" s="90"/>
-      <c r="BI41" s="90"/>
-      <c r="BJ41" s="90"/>
-      <c r="BK41" s="91"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="58"/>
+      <c r="AK41" s="58"/>
+      <c r="AL41" s="58"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="58"/>
+      <c r="AO41" s="58"/>
+      <c r="AP41" s="58"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="58"/>
+      <c r="AS41" s="58"/>
+      <c r="AT41" s="58"/>
+      <c r="AU41" s="58"/>
+      <c r="AV41" s="58"/>
+      <c r="AW41" s="58"/>
+      <c r="AX41" s="58"/>
+      <c r="AY41" s="58"/>
+      <c r="AZ41" s="58"/>
+      <c r="BA41" s="58"/>
+      <c r="BB41" s="58"/>
+      <c r="BC41" s="58"/>
+      <c r="BD41" s="58"/>
+      <c r="BE41" s="58"/>
+      <c r="BF41" s="58"/>
+      <c r="BG41" s="58"/>
+      <c r="BH41" s="58"/>
+      <c r="BI41" s="58"/>
+      <c r="BJ41" s="58"/>
+      <c r="BK41" s="59"/>
       <c r="BL41" s="22"/>
       <c r="BM41" s="22"/>
       <c r="BN41" s="22"/>
@@ -16758,75 +16751,75 @@
       <c r="CI41" s="15"/>
       <c r="AMI41" s="6"/>
     </row>
-    <row r="42" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="26"/>
       <c r="D42" s="22"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
-      <c r="G42" s="42">
+      <c r="G42" s="47">
         <v>5</v>
       </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="42" t="s">
+      <c r="H42" s="73"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="42" t="s">
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="74"/>
+      <c r="Y42" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="Z42" s="81"/>
-      <c r="AA42" s="81"/>
-      <c r="AB42" s="81"/>
-      <c r="AC42" s="81"/>
-      <c r="AD42" s="81"/>
-      <c r="AE42" s="81"/>
-      <c r="AF42" s="81"/>
-      <c r="AG42" s="81"/>
-      <c r="AH42" s="81"/>
-      <c r="AI42" s="81"/>
-      <c r="AJ42" s="81"/>
-      <c r="AK42" s="81"/>
-      <c r="AL42" s="81"/>
-      <c r="AM42" s="81"/>
-      <c r="AN42" s="81"/>
-      <c r="AO42" s="81"/>
-      <c r="AP42" s="81"/>
-      <c r="AQ42" s="81"/>
-      <c r="AR42" s="81"/>
-      <c r="AS42" s="81"/>
-      <c r="AT42" s="81"/>
-      <c r="AU42" s="81"/>
-      <c r="AV42" s="81"/>
-      <c r="AW42" s="81"/>
-      <c r="AX42" s="81"/>
-      <c r="AY42" s="81"/>
-      <c r="AZ42" s="81"/>
-      <c r="BA42" s="81"/>
-      <c r="BB42" s="81"/>
-      <c r="BC42" s="81"/>
-      <c r="BD42" s="81"/>
-      <c r="BE42" s="81"/>
-      <c r="BF42" s="81"/>
-      <c r="BG42" s="81"/>
-      <c r="BH42" s="81"/>
-      <c r="BI42" s="81"/>
-      <c r="BJ42" s="81"/>
-      <c r="BK42" s="82"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="48"/>
+      <c r="AH42" s="48"/>
+      <c r="AI42" s="48"/>
+      <c r="AJ42" s="48"/>
+      <c r="AK42" s="48"/>
+      <c r="AL42" s="48"/>
+      <c r="AM42" s="48"/>
+      <c r="AN42" s="48"/>
+      <c r="AO42" s="48"/>
+      <c r="AP42" s="48"/>
+      <c r="AQ42" s="48"/>
+      <c r="AR42" s="48"/>
+      <c r="AS42" s="48"/>
+      <c r="AT42" s="48"/>
+      <c r="AU42" s="48"/>
+      <c r="AV42" s="48"/>
+      <c r="AW42" s="48"/>
+      <c r="AX42" s="48"/>
+      <c r="AY42" s="48"/>
+      <c r="AZ42" s="48"/>
+      <c r="BA42" s="48"/>
+      <c r="BB42" s="48"/>
+      <c r="BC42" s="48"/>
+      <c r="BD42" s="48"/>
+      <c r="BE42" s="48"/>
+      <c r="BF42" s="48"/>
+      <c r="BG42" s="48"/>
+      <c r="BH42" s="48"/>
+      <c r="BI42" s="48"/>
+      <c r="BJ42" s="48"/>
+      <c r="BK42" s="56"/>
       <c r="BL42" s="22"/>
       <c r="BM42" s="22"/>
       <c r="BN42" s="22"/>
@@ -16853,7 +16846,7 @@
       <c r="CI42" s="15"/>
       <c r="AMI42" s="6"/>
     </row>
-    <row r="43" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B43" s="10"/>
       <c r="C43" s="26"/>
       <c r="D43" s="22"/>
@@ -16942,30 +16935,30 @@
       <c r="CI43" s="15"/>
       <c r="AMI43" s="6"/>
     </row>
-    <row r="44" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="B44" s="8"/>
       <c r="C44" s="39"/>
       <c r="D44" s="37"/>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
-      <c r="S44" s="102"/>
-      <c r="T44" s="102"/>
-      <c r="U44" s="102"/>
-      <c r="V44" s="102"/>
-      <c r="W44" s="102"/>
-      <c r="X44" s="102"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
       <c r="Y44" s="39"/>
       <c r="Z44" s="39"/>
       <c r="AA44" s="39"/>
@@ -17031,205 +17024,205 @@
       <c r="CI44" s="8"/>
       <c r="AMI44" s="6"/>
     </row>
-    <row r="45" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="76" t="s">
+    <row r="45" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B45" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="49" t="s">
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50"/>
-      <c r="W45" s="50"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="73" t="s">
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" s="74"/>
-      <c r="AA45" s="74"/>
-      <c r="AB45" s="74"/>
-      <c r="AC45" s="74"/>
-      <c r="AD45" s="74"/>
-      <c r="AE45" s="74"/>
-      <c r="AF45" s="74"/>
-      <c r="AG45" s="74"/>
-      <c r="AH45" s="75"/>
-      <c r="AI45" s="73" t="s">
+      <c r="Z45" s="83"/>
+      <c r="AA45" s="83"/>
+      <c r="AB45" s="83"/>
+      <c r="AC45" s="83"/>
+      <c r="AD45" s="83"/>
+      <c r="AE45" s="83"/>
+      <c r="AF45" s="83"/>
+      <c r="AG45" s="83"/>
+      <c r="AH45" s="84"/>
+      <c r="AI45" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="AJ45" s="74"/>
-      <c r="AK45" s="74"/>
-      <c r="AL45" s="74"/>
-      <c r="AM45" s="74"/>
-      <c r="AN45" s="74"/>
-      <c r="AO45" s="74"/>
-      <c r="AP45" s="74"/>
-      <c r="AQ45" s="74"/>
-      <c r="AR45" s="75"/>
-      <c r="AS45" s="52" t="s">
+      <c r="AJ45" s="83"/>
+      <c r="AK45" s="83"/>
+      <c r="AL45" s="83"/>
+      <c r="AM45" s="83"/>
+      <c r="AN45" s="83"/>
+      <c r="AO45" s="83"/>
+      <c r="AP45" s="83"/>
+      <c r="AQ45" s="83"/>
+      <c r="AR45" s="84"/>
+      <c r="AS45" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AT45" s="53"/>
-      <c r="AU45" s="53"/>
-      <c r="AV45" s="53"/>
-      <c r="AW45" s="53"/>
-      <c r="AX45" s="53"/>
-      <c r="AY45" s="53"/>
-      <c r="AZ45" s="53"/>
-      <c r="BA45" s="53"/>
-      <c r="BB45" s="53"/>
-      <c r="BC45" s="53"/>
-      <c r="BD45" s="53"/>
-      <c r="BE45" s="53"/>
-      <c r="BF45" s="53"/>
-      <c r="BG45" s="53"/>
-      <c r="BH45" s="53"/>
-      <c r="BI45" s="53"/>
-      <c r="BJ45" s="53"/>
-      <c r="BK45" s="53"/>
-      <c r="BL45" s="53"/>
-      <c r="BM45" s="53"/>
-      <c r="BN45" s="53"/>
-      <c r="BO45" s="53"/>
-      <c r="BP45" s="53"/>
-      <c r="BQ45" s="53"/>
-      <c r="BR45" s="53"/>
-      <c r="BS45" s="53"/>
-      <c r="BT45" s="53"/>
-      <c r="BU45" s="53"/>
-      <c r="BV45" s="53"/>
-      <c r="BW45" s="53"/>
-      <c r="BX45" s="53"/>
-      <c r="BY45" s="53"/>
-      <c r="BZ45" s="53"/>
-      <c r="CA45" s="53"/>
-      <c r="CB45" s="53"/>
-      <c r="CC45" s="53"/>
-      <c r="CD45" s="53"/>
-      <c r="CE45" s="53"/>
-      <c r="CF45" s="53"/>
-      <c r="CG45" s="53"/>
-      <c r="CH45" s="53"/>
-      <c r="CI45" s="54"/>
+      <c r="AT45" s="51"/>
+      <c r="AU45" s="51"/>
+      <c r="AV45" s="51"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="51"/>
+      <c r="AY45" s="51"/>
+      <c r="AZ45" s="51"/>
+      <c r="BA45" s="51"/>
+      <c r="BB45" s="51"/>
+      <c r="BC45" s="51"/>
+      <c r="BD45" s="51"/>
+      <c r="BE45" s="51"/>
+      <c r="BF45" s="51"/>
+      <c r="BG45" s="51"/>
+      <c r="BH45" s="51"/>
+      <c r="BI45" s="51"/>
+      <c r="BJ45" s="51"/>
+      <c r="BK45" s="51"/>
+      <c r="BL45" s="51"/>
+      <c r="BM45" s="51"/>
+      <c r="BN45" s="51"/>
+      <c r="BO45" s="51"/>
+      <c r="BP45" s="51"/>
+      <c r="BQ45" s="51"/>
+      <c r="BR45" s="51"/>
+      <c r="BS45" s="51"/>
+      <c r="BT45" s="51"/>
+      <c r="BU45" s="51"/>
+      <c r="BV45" s="51"/>
+      <c r="BW45" s="51"/>
+      <c r="BX45" s="51"/>
+      <c r="BY45" s="51"/>
+      <c r="BZ45" s="51"/>
+      <c r="CA45" s="51"/>
+      <c r="CB45" s="51"/>
+      <c r="CC45" s="51"/>
+      <c r="CD45" s="51"/>
+      <c r="CE45" s="51"/>
+      <c r="CF45" s="51"/>
+      <c r="CG45" s="51"/>
+      <c r="CH45" s="51"/>
+      <c r="CI45" s="52"/>
       <c r="AMI45" s="6"/>
     </row>
-    <row r="46" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="71">
-        <v>2</v>
+    <row r="46" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B46" s="85">
+        <v>4</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="42" t="s">
-        <v>57</v>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="47" t="s">
+        <v>56</v>
       </c>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="81"/>
-      <c r="V46" s="81"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="42" t="s">
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="48"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="Z46" s="81"/>
-      <c r="AA46" s="81"/>
-      <c r="AB46" s="81"/>
-      <c r="AC46" s="81"/>
-      <c r="AD46" s="81"/>
-      <c r="AE46" s="81"/>
-      <c r="AF46" s="81"/>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="82"/>
-      <c r="AI46" s="42" t="s">
+      <c r="Z46" s="48"/>
+      <c r="AA46" s="48"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="48"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="48"/>
+      <c r="AF46" s="48"/>
+      <c r="AG46" s="48"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AJ46" s="81"/>
-      <c r="AK46" s="81"/>
-      <c r="AL46" s="81"/>
-      <c r="AM46" s="81"/>
-      <c r="AN46" s="81"/>
-      <c r="AO46" s="81"/>
-      <c r="AP46" s="81"/>
-      <c r="AQ46" s="81"/>
-      <c r="AR46" s="82"/>
-      <c r="AS46" s="42" t="s">
+      <c r="AJ46" s="48"/>
+      <c r="AK46" s="48"/>
+      <c r="AL46" s="48"/>
+      <c r="AM46" s="48"/>
+      <c r="AN46" s="48"/>
+      <c r="AO46" s="48"/>
+      <c r="AP46" s="48"/>
+      <c r="AQ46" s="48"/>
+      <c r="AR46" s="56"/>
+      <c r="AS46" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="AT46" s="81"/>
-      <c r="AU46" s="81"/>
-      <c r="AV46" s="81"/>
-      <c r="AW46" s="81"/>
-      <c r="AX46" s="81"/>
-      <c r="AY46" s="81"/>
-      <c r="AZ46" s="81"/>
-      <c r="BA46" s="81"/>
-      <c r="BB46" s="81"/>
-      <c r="BC46" s="81"/>
-      <c r="BD46" s="81"/>
-      <c r="BE46" s="81"/>
-      <c r="BF46" s="81"/>
-      <c r="BG46" s="81"/>
-      <c r="BH46" s="81"/>
-      <c r="BI46" s="81"/>
-      <c r="BJ46" s="81"/>
-      <c r="BK46" s="81"/>
-      <c r="BL46" s="81"/>
-      <c r="BM46" s="81"/>
-      <c r="BN46" s="81"/>
-      <c r="BO46" s="81"/>
-      <c r="BP46" s="81"/>
-      <c r="BQ46" s="81"/>
-      <c r="BR46" s="81"/>
-      <c r="BS46" s="81"/>
-      <c r="BT46" s="81"/>
-      <c r="BU46" s="81"/>
-      <c r="BV46" s="81"/>
-      <c r="BW46" s="81"/>
-      <c r="BX46" s="81"/>
-      <c r="BY46" s="81"/>
-      <c r="BZ46" s="81"/>
-      <c r="CA46" s="81"/>
-      <c r="CB46" s="81"/>
-      <c r="CC46" s="81"/>
-      <c r="CD46" s="81"/>
-      <c r="CE46" s="81"/>
-      <c r="CF46" s="81"/>
-      <c r="CG46" s="81"/>
-      <c r="CH46" s="81"/>
-      <c r="CI46" s="112"/>
+      <c r="AT46" s="48"/>
+      <c r="AU46" s="48"/>
+      <c r="AV46" s="48"/>
+      <c r="AW46" s="48"/>
+      <c r="AX46" s="48"/>
+      <c r="AY46" s="48"/>
+      <c r="AZ46" s="48"/>
+      <c r="BA46" s="48"/>
+      <c r="BB46" s="48"/>
+      <c r="BC46" s="48"/>
+      <c r="BD46" s="48"/>
+      <c r="BE46" s="48"/>
+      <c r="BF46" s="48"/>
+      <c r="BG46" s="48"/>
+      <c r="BH46" s="48"/>
+      <c r="BI46" s="48"/>
+      <c r="BJ46" s="48"/>
+      <c r="BK46" s="48"/>
+      <c r="BL46" s="48"/>
+      <c r="BM46" s="48"/>
+      <c r="BN46" s="48"/>
+      <c r="BO46" s="48"/>
+      <c r="BP46" s="48"/>
+      <c r="BQ46" s="48"/>
+      <c r="BR46" s="48"/>
+      <c r="BS46" s="48"/>
+      <c r="BT46" s="48"/>
+      <c r="BU46" s="48"/>
+      <c r="BV46" s="48"/>
+      <c r="BW46" s="48"/>
+      <c r="BX46" s="48"/>
+      <c r="BY46" s="48"/>
+      <c r="BZ46" s="48"/>
+      <c r="CA46" s="48"/>
+      <c r="CB46" s="48"/>
+      <c r="CC46" s="48"/>
+      <c r="CD46" s="48"/>
+      <c r="CE46" s="48"/>
+      <c r="CF46" s="48"/>
+      <c r="CG46" s="48"/>
+      <c r="CH46" s="48"/>
+      <c r="CI46" s="49"/>
       <c r="AMI46" s="6"/>
     </row>
-    <row r="47" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B47" s="10"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -17315,101 +17308,101 @@
       <c r="CF47" s="26"/>
       <c r="CG47" s="26"/>
       <c r="CH47" s="26"/>
-      <c r="CI47" s="103"/>
+      <c r="CI47" s="44"/>
       <c r="AMI47" s="6"/>
     </row>
-    <row r="48" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="104" t="s">
-        <v>58</v>
+    <row r="48" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B48" s="60" t="s">
+        <v>57</v>
       </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="V48" s="105"/>
-      <c r="W48" s="105"/>
-      <c r="X48" s="105"/>
-      <c r="Y48" s="105"/>
-      <c r="Z48" s="105"/>
-      <c r="AA48" s="105"/>
-      <c r="AB48" s="105"/>
-      <c r="AC48" s="105"/>
-      <c r="AD48" s="105"/>
-      <c r="AE48" s="105"/>
-      <c r="AF48" s="105"/>
-      <c r="AG48" s="105"/>
-      <c r="AH48" s="105"/>
-      <c r="AI48" s="105"/>
-      <c r="AJ48" s="105"/>
-      <c r="AK48" s="105"/>
-      <c r="AL48" s="105"/>
-      <c r="AM48" s="105"/>
-      <c r="AN48" s="105"/>
-      <c r="AO48" s="105"/>
-      <c r="AP48" s="105"/>
-      <c r="AQ48" s="105"/>
-      <c r="AR48" s="105"/>
-      <c r="AS48" s="105"/>
-      <c r="AT48" s="105"/>
-      <c r="AU48" s="105"/>
-      <c r="AV48" s="105"/>
-      <c r="AW48" s="105"/>
-      <c r="AX48" s="105"/>
-      <c r="AY48" s="105"/>
-      <c r="AZ48" s="105"/>
-      <c r="BA48" s="105"/>
-      <c r="BB48" s="105"/>
-      <c r="BC48" s="105"/>
-      <c r="BD48" s="105"/>
-      <c r="BE48" s="105"/>
-      <c r="BF48" s="105"/>
-      <c r="BG48" s="105"/>
-      <c r="BH48" s="105"/>
-      <c r="BI48" s="105"/>
-      <c r="BJ48" s="105"/>
-      <c r="BK48" s="105"/>
-      <c r="BL48" s="105"/>
-      <c r="BM48" s="105"/>
-      <c r="BN48" s="105"/>
-      <c r="BO48" s="105"/>
-      <c r="BP48" s="105"/>
-      <c r="BQ48" s="105"/>
-      <c r="BR48" s="105"/>
-      <c r="BS48" s="105"/>
-      <c r="BT48" s="105"/>
-      <c r="BU48" s="105"/>
-      <c r="BV48" s="105"/>
-      <c r="BW48" s="105"/>
-      <c r="BX48" s="105"/>
-      <c r="BY48" s="105"/>
-      <c r="BZ48" s="105"/>
-      <c r="CA48" s="105"/>
-      <c r="CB48" s="105"/>
-      <c r="CC48" s="105"/>
-      <c r="CD48" s="105"/>
-      <c r="CE48" s="105"/>
-      <c r="CF48" s="105"/>
-      <c r="CG48" s="105"/>
-      <c r="CH48" s="105"/>
-      <c r="CI48" s="106"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="61"/>
+      <c r="T48" s="61"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
+      <c r="Y48" s="61"/>
+      <c r="Z48" s="61"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="61"/>
+      <c r="AC48" s="61"/>
+      <c r="AD48" s="61"/>
+      <c r="AE48" s="61"/>
+      <c r="AF48" s="61"/>
+      <c r="AG48" s="61"/>
+      <c r="AH48" s="61"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="61"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="61"/>
+      <c r="AM48" s="61"/>
+      <c r="AN48" s="61"/>
+      <c r="AO48" s="61"/>
+      <c r="AP48" s="61"/>
+      <c r="AQ48" s="61"/>
+      <c r="AR48" s="61"/>
+      <c r="AS48" s="61"/>
+      <c r="AT48" s="61"/>
+      <c r="AU48" s="61"/>
+      <c r="AV48" s="61"/>
+      <c r="AW48" s="61"/>
+      <c r="AX48" s="61"/>
+      <c r="AY48" s="61"/>
+      <c r="AZ48" s="61"/>
+      <c r="BA48" s="61"/>
+      <c r="BB48" s="61"/>
+      <c r="BC48" s="61"/>
+      <c r="BD48" s="61"/>
+      <c r="BE48" s="61"/>
+      <c r="BF48" s="61"/>
+      <c r="BG48" s="61"/>
+      <c r="BH48" s="61"/>
+      <c r="BI48" s="61"/>
+      <c r="BJ48" s="61"/>
+      <c r="BK48" s="61"/>
+      <c r="BL48" s="61"/>
+      <c r="BM48" s="61"/>
+      <c r="BN48" s="61"/>
+      <c r="BO48" s="61"/>
+      <c r="BP48" s="61"/>
+      <c r="BQ48" s="61"/>
+      <c r="BR48" s="61"/>
+      <c r="BS48" s="61"/>
+      <c r="BT48" s="61"/>
+      <c r="BU48" s="61"/>
+      <c r="BV48" s="61"/>
+      <c r="BW48" s="61"/>
+      <c r="BX48" s="61"/>
+      <c r="BY48" s="61"/>
+      <c r="BZ48" s="61"/>
+      <c r="CA48" s="61"/>
+      <c r="CB48" s="61"/>
+      <c r="CC48" s="61"/>
+      <c r="CD48" s="61"/>
+      <c r="CE48" s="61"/>
+      <c r="CF48" s="61"/>
+      <c r="CG48" s="61"/>
+      <c r="CH48" s="61"/>
+      <c r="CI48" s="62"/>
       <c r="AMI48" s="6"/>
     </row>
-    <row r="49" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B49" s="10"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -17495,80 +17488,80 @@
       <c r="CF49" s="26"/>
       <c r="CG49" s="26"/>
       <c r="CH49" s="26"/>
-      <c r="CI49" s="103"/>
+      <c r="CI49" s="44"/>
       <c r="AMI49" s="6"/>
     </row>
-    <row r="50" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B50" s="10"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
-      <c r="G50" s="87" t="s">
+      <c r="G50" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87" t="s">
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="R50" s="87"/>
-      <c r="S50" s="87"/>
-      <c r="T50" s="87"/>
-      <c r="U50" s="87"/>
-      <c r="V50" s="87"/>
-      <c r="W50" s="87"/>
-      <c r="X50" s="87"/>
-      <c r="Y50" s="87"/>
-      <c r="Z50" s="87"/>
-      <c r="AA50" s="85" t="s">
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
+      <c r="U50" s="76"/>
+      <c r="V50" s="76"/>
+      <c r="W50" s="76"/>
+      <c r="X50" s="76"/>
+      <c r="Y50" s="76"/>
+      <c r="Z50" s="76"/>
+      <c r="AA50" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="AB50" s="86"/>
-      <c r="AC50" s="86"/>
-      <c r="AD50" s="86"/>
-      <c r="AE50" s="86"/>
-      <c r="AF50" s="86"/>
-      <c r="AG50" s="86"/>
-      <c r="AH50" s="86"/>
-      <c r="AI50" s="86"/>
-      <c r="AJ50" s="86"/>
-      <c r="AK50" s="88"/>
-      <c r="AL50" s="85" t="s">
+      <c r="AB50" s="70"/>
+      <c r="AC50" s="70"/>
+      <c r="AD50" s="70"/>
+      <c r="AE50" s="70"/>
+      <c r="AF50" s="70"/>
+      <c r="AG50" s="70"/>
+      <c r="AH50" s="70"/>
+      <c r="AI50" s="70"/>
+      <c r="AJ50" s="70"/>
+      <c r="AK50" s="77"/>
+      <c r="AL50" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="AM50" s="86"/>
-      <c r="AN50" s="86"/>
-      <c r="AO50" s="86"/>
-      <c r="AP50" s="86"/>
-      <c r="AQ50" s="86"/>
-      <c r="AR50" s="86"/>
-      <c r="AS50" s="86"/>
-      <c r="AT50" s="86"/>
-      <c r="AU50" s="86"/>
-      <c r="AV50" s="86"/>
-      <c r="AW50" s="86"/>
-      <c r="AX50" s="86"/>
-      <c r="AY50" s="86"/>
-      <c r="AZ50" s="86"/>
-      <c r="BA50" s="86"/>
-      <c r="BB50" s="86"/>
-      <c r="BC50" s="86"/>
-      <c r="BD50" s="86"/>
-      <c r="BE50" s="86"/>
-      <c r="BF50" s="86"/>
-      <c r="BG50" s="86"/>
-      <c r="BH50" s="86"/>
-      <c r="BI50" s="86"/>
-      <c r="BJ50" s="86"/>
-      <c r="BK50" s="88"/>
+      <c r="AM50" s="70"/>
+      <c r="AN50" s="70"/>
+      <c r="AO50" s="70"/>
+      <c r="AP50" s="70"/>
+      <c r="AQ50" s="70"/>
+      <c r="AR50" s="70"/>
+      <c r="AS50" s="70"/>
+      <c r="AT50" s="70"/>
+      <c r="AU50" s="70"/>
+      <c r="AV50" s="70"/>
+      <c r="AW50" s="70"/>
+      <c r="AX50" s="70"/>
+      <c r="AY50" s="70"/>
+      <c r="AZ50" s="70"/>
+      <c r="BA50" s="70"/>
+      <c r="BB50" s="70"/>
+      <c r="BC50" s="70"/>
+      <c r="BD50" s="70"/>
+      <c r="BE50" s="70"/>
+      <c r="BF50" s="70"/>
+      <c r="BG50" s="70"/>
+      <c r="BH50" s="70"/>
+      <c r="BI50" s="70"/>
+      <c r="BJ50" s="70"/>
+      <c r="BK50" s="77"/>
       <c r="BL50" s="26"/>
       <c r="BM50" s="26"/>
       <c r="BN50" s="26"/>
@@ -17592,80 +17585,80 @@
       <c r="CF50" s="26"/>
       <c r="CG50" s="26"/>
       <c r="CH50" s="26"/>
-      <c r="CI50" s="103"/>
+      <c r="CI50" s="44"/>
       <c r="AMI50" s="6"/>
     </row>
-    <row r="51" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B51" s="10"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
-      <c r="G51" s="80" t="s">
+      <c r="G51" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="80"/>
-      <c r="Q51" s="80" t="s">
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="R51" s="80"/>
-      <c r="S51" s="80"/>
-      <c r="T51" s="80"/>
-      <c r="U51" s="80"/>
-      <c r="V51" s="80"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-      <c r="Y51" s="80"/>
-      <c r="Z51" s="80"/>
-      <c r="AA51" s="89">
+      <c r="R51" s="75"/>
+      <c r="S51" s="75"/>
+      <c r="T51" s="75"/>
+      <c r="U51" s="75"/>
+      <c r="V51" s="75"/>
+      <c r="W51" s="75"/>
+      <c r="X51" s="75"/>
+      <c r="Y51" s="75"/>
+      <c r="Z51" s="75"/>
+      <c r="AA51" s="57">
         <v>20</v>
       </c>
-      <c r="AB51" s="90"/>
-      <c r="AC51" s="90"/>
-      <c r="AD51" s="90"/>
-      <c r="AE51" s="90"/>
-      <c r="AF51" s="90"/>
-      <c r="AG51" s="90"/>
-      <c r="AH51" s="90"/>
-      <c r="AI51" s="90"/>
-      <c r="AJ51" s="90"/>
-      <c r="AK51" s="91"/>
-      <c r="AL51" s="42" t="s">
+      <c r="AB51" s="58"/>
+      <c r="AC51" s="58"/>
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="58"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="58"/>
+      <c r="AH51" s="58"/>
+      <c r="AI51" s="58"/>
+      <c r="AJ51" s="58"/>
+      <c r="AK51" s="59"/>
+      <c r="AL51" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AM51" s="81"/>
-      <c r="AN51" s="81"/>
-      <c r="AO51" s="81"/>
-      <c r="AP51" s="81"/>
-      <c r="AQ51" s="81"/>
-      <c r="AR51" s="81"/>
-      <c r="AS51" s="81"/>
-      <c r="AT51" s="81"/>
-      <c r="AU51" s="81"/>
-      <c r="AV51" s="81"/>
-      <c r="AW51" s="81"/>
-      <c r="AX51" s="81"/>
-      <c r="AY51" s="81"/>
-      <c r="AZ51" s="81"/>
-      <c r="BA51" s="81"/>
-      <c r="BB51" s="81"/>
-      <c r="BC51" s="81"/>
-      <c r="BD51" s="81"/>
-      <c r="BE51" s="81"/>
-      <c r="BF51" s="81"/>
-      <c r="BG51" s="81"/>
-      <c r="BH51" s="81"/>
-      <c r="BI51" s="81"/>
-      <c r="BJ51" s="81"/>
-      <c r="BK51" s="82"/>
+      <c r="AM51" s="48"/>
+      <c r="AN51" s="48"/>
+      <c r="AO51" s="48"/>
+      <c r="AP51" s="48"/>
+      <c r="AQ51" s="48"/>
+      <c r="AR51" s="48"/>
+      <c r="AS51" s="48"/>
+      <c r="AT51" s="48"/>
+      <c r="AU51" s="48"/>
+      <c r="AV51" s="48"/>
+      <c r="AW51" s="48"/>
+      <c r="AX51" s="48"/>
+      <c r="AY51" s="48"/>
+      <c r="AZ51" s="48"/>
+      <c r="BA51" s="48"/>
+      <c r="BB51" s="48"/>
+      <c r="BC51" s="48"/>
+      <c r="BD51" s="48"/>
+      <c r="BE51" s="48"/>
+      <c r="BF51" s="48"/>
+      <c r="BG51" s="48"/>
+      <c r="BH51" s="48"/>
+      <c r="BI51" s="48"/>
+      <c r="BJ51" s="48"/>
+      <c r="BK51" s="56"/>
       <c r="BL51" s="26"/>
       <c r="BM51" s="26"/>
       <c r="BN51" s="26"/>
@@ -17689,80 +17682,80 @@
       <c r="CF51" s="26"/>
       <c r="CG51" s="26"/>
       <c r="CH51" s="26"/>
-      <c r="CI51" s="103"/>
+      <c r="CI51" s="44"/>
       <c r="AMI51" s="6"/>
     </row>
-    <row r="52" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B52" s="10"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
-      <c r="G52" s="89" t="s">
+      <c r="G52" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="90"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="91"/>
-      <c r="Q52" s="89" t="s">
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="R52" s="90"/>
-      <c r="S52" s="90"/>
-      <c r="T52" s="90"/>
-      <c r="U52" s="90"/>
-      <c r="V52" s="90"/>
-      <c r="W52" s="90"/>
-      <c r="X52" s="90"/>
-      <c r="Y52" s="90"/>
-      <c r="Z52" s="91"/>
-      <c r="AA52" s="89">
+      <c r="R52" s="58"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="58"/>
+      <c r="V52" s="58"/>
+      <c r="W52" s="58"/>
+      <c r="X52" s="58"/>
+      <c r="Y52" s="58"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="57">
         <v>20</v>
       </c>
-      <c r="AB52" s="90"/>
-      <c r="AC52" s="90"/>
-      <c r="AD52" s="90"/>
-      <c r="AE52" s="90"/>
-      <c r="AF52" s="90"/>
-      <c r="AG52" s="90"/>
-      <c r="AH52" s="90"/>
-      <c r="AI52" s="90"/>
-      <c r="AJ52" s="90"/>
-      <c r="AK52" s="91"/>
-      <c r="AL52" s="89" t="s">
+      <c r="AB52" s="58"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="58"/>
+      <c r="AF52" s="58"/>
+      <c r="AG52" s="58"/>
+      <c r="AH52" s="58"/>
+      <c r="AI52" s="58"/>
+      <c r="AJ52" s="58"/>
+      <c r="AK52" s="59"/>
+      <c r="AL52" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AM52" s="90"/>
-      <c r="AN52" s="90"/>
-      <c r="AO52" s="90"/>
-      <c r="AP52" s="90"/>
-      <c r="AQ52" s="90"/>
-      <c r="AR52" s="90"/>
-      <c r="AS52" s="90"/>
-      <c r="AT52" s="90"/>
-      <c r="AU52" s="90"/>
-      <c r="AV52" s="90"/>
-      <c r="AW52" s="90"/>
-      <c r="AX52" s="90"/>
-      <c r="AY52" s="90"/>
-      <c r="AZ52" s="90"/>
-      <c r="BA52" s="90"/>
-      <c r="BB52" s="90"/>
-      <c r="BC52" s="90"/>
-      <c r="BD52" s="90"/>
-      <c r="BE52" s="90"/>
-      <c r="BF52" s="90"/>
-      <c r="BG52" s="90"/>
-      <c r="BH52" s="90"/>
-      <c r="BI52" s="90"/>
-      <c r="BJ52" s="90"/>
-      <c r="BK52" s="91"/>
+      <c r="AM52" s="58"/>
+      <c r="AN52" s="58"/>
+      <c r="AO52" s="58"/>
+      <c r="AP52" s="58"/>
+      <c r="AQ52" s="58"/>
+      <c r="AR52" s="58"/>
+      <c r="AS52" s="58"/>
+      <c r="AT52" s="58"/>
+      <c r="AU52" s="58"/>
+      <c r="AV52" s="58"/>
+      <c r="AW52" s="58"/>
+      <c r="AX52" s="58"/>
+      <c r="AY52" s="58"/>
+      <c r="AZ52" s="58"/>
+      <c r="BA52" s="58"/>
+      <c r="BB52" s="58"/>
+      <c r="BC52" s="58"/>
+      <c r="BD52" s="58"/>
+      <c r="BE52" s="58"/>
+      <c r="BF52" s="58"/>
+      <c r="BG52" s="58"/>
+      <c r="BH52" s="58"/>
+      <c r="BI52" s="58"/>
+      <c r="BJ52" s="58"/>
+      <c r="BK52" s="59"/>
       <c r="BL52" s="26"/>
       <c r="BM52" s="26"/>
       <c r="BN52" s="26"/>
@@ -17786,80 +17779,80 @@
       <c r="CF52" s="26"/>
       <c r="CG52" s="26"/>
       <c r="CH52" s="26"/>
-      <c r="CI52" s="103"/>
+      <c r="CI52" s="44"/>
       <c r="AMI52" s="6"/>
     </row>
-    <row r="53" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B53" s="10"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="80" t="s">
+      <c r="G53" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="80"/>
-      <c r="Q53" s="80" t="s">
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="R53" s="80"/>
-      <c r="S53" s="80"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="80"/>
-      <c r="Y53" s="80"/>
-      <c r="Z53" s="80"/>
-      <c r="AA53" s="89">
+      <c r="R53" s="75"/>
+      <c r="S53" s="75"/>
+      <c r="T53" s="75"/>
+      <c r="U53" s="75"/>
+      <c r="V53" s="75"/>
+      <c r="W53" s="75"/>
+      <c r="X53" s="75"/>
+      <c r="Y53" s="75"/>
+      <c r="Z53" s="75"/>
+      <c r="AA53" s="57">
         <v>15</v>
       </c>
-      <c r="AB53" s="90"/>
-      <c r="AC53" s="90"/>
-      <c r="AD53" s="90"/>
-      <c r="AE53" s="90"/>
-      <c r="AF53" s="90"/>
-      <c r="AG53" s="90"/>
-      <c r="AH53" s="90"/>
-      <c r="AI53" s="90"/>
-      <c r="AJ53" s="90"/>
-      <c r="AK53" s="91"/>
-      <c r="AL53" s="42" t="s">
+      <c r="AB53" s="58"/>
+      <c r="AC53" s="58"/>
+      <c r="AD53" s="58"/>
+      <c r="AE53" s="58"/>
+      <c r="AF53" s="58"/>
+      <c r="AG53" s="58"/>
+      <c r="AH53" s="58"/>
+      <c r="AI53" s="58"/>
+      <c r="AJ53" s="58"/>
+      <c r="AK53" s="59"/>
+      <c r="AL53" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AM53" s="81"/>
-      <c r="AN53" s="81"/>
-      <c r="AO53" s="81"/>
-      <c r="AP53" s="81"/>
-      <c r="AQ53" s="81"/>
-      <c r="AR53" s="81"/>
-      <c r="AS53" s="81"/>
-      <c r="AT53" s="81"/>
-      <c r="AU53" s="81"/>
-      <c r="AV53" s="81"/>
-      <c r="AW53" s="81"/>
-      <c r="AX53" s="81"/>
-      <c r="AY53" s="81"/>
-      <c r="AZ53" s="81"/>
-      <c r="BA53" s="81"/>
-      <c r="BB53" s="81"/>
-      <c r="BC53" s="81"/>
-      <c r="BD53" s="81"/>
-      <c r="BE53" s="81"/>
-      <c r="BF53" s="81"/>
-      <c r="BG53" s="81"/>
-      <c r="BH53" s="81"/>
-      <c r="BI53" s="81"/>
-      <c r="BJ53" s="81"/>
-      <c r="BK53" s="82"/>
+      <c r="AM53" s="48"/>
+      <c r="AN53" s="48"/>
+      <c r="AO53" s="48"/>
+      <c r="AP53" s="48"/>
+      <c r="AQ53" s="48"/>
+      <c r="AR53" s="48"/>
+      <c r="AS53" s="48"/>
+      <c r="AT53" s="48"/>
+      <c r="AU53" s="48"/>
+      <c r="AV53" s="48"/>
+      <c r="AW53" s="48"/>
+      <c r="AX53" s="48"/>
+      <c r="AY53" s="48"/>
+      <c r="AZ53" s="48"/>
+      <c r="BA53" s="48"/>
+      <c r="BB53" s="48"/>
+      <c r="BC53" s="48"/>
+      <c r="BD53" s="48"/>
+      <c r="BE53" s="48"/>
+      <c r="BF53" s="48"/>
+      <c r="BG53" s="48"/>
+      <c r="BH53" s="48"/>
+      <c r="BI53" s="48"/>
+      <c r="BJ53" s="48"/>
+      <c r="BK53" s="56"/>
       <c r="BL53" s="26"/>
       <c r="BM53" s="26"/>
       <c r="BN53" s="26"/>
@@ -17883,80 +17876,80 @@
       <c r="CF53" s="26"/>
       <c r="CG53" s="26"/>
       <c r="CH53" s="26"/>
-      <c r="CI53" s="103"/>
+      <c r="CI53" s="44"/>
       <c r="AMI53" s="6"/>
     </row>
-    <row r="54" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B54" s="10"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
-      <c r="G54" s="80" t="s">
+      <c r="G54" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="80"/>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="80" t="s">
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="R54" s="80"/>
-      <c r="S54" s="80"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
-      <c r="W54" s="80"/>
-      <c r="X54" s="80"/>
-      <c r="Y54" s="80"/>
-      <c r="Z54" s="80"/>
-      <c r="AA54" s="89">
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="75"/>
+      <c r="V54" s="75"/>
+      <c r="W54" s="75"/>
+      <c r="X54" s="75"/>
+      <c r="Y54" s="75"/>
+      <c r="Z54" s="75"/>
+      <c r="AA54" s="57">
         <v>15</v>
       </c>
-      <c r="AB54" s="90"/>
-      <c r="AC54" s="90"/>
-      <c r="AD54" s="90"/>
-      <c r="AE54" s="90"/>
-      <c r="AF54" s="90"/>
-      <c r="AG54" s="90"/>
-      <c r="AH54" s="90"/>
-      <c r="AI54" s="90"/>
-      <c r="AJ54" s="90"/>
-      <c r="AK54" s="91"/>
-      <c r="AL54" s="42" t="s">
+      <c r="AB54" s="58"/>
+      <c r="AC54" s="58"/>
+      <c r="AD54" s="58"/>
+      <c r="AE54" s="58"/>
+      <c r="AF54" s="58"/>
+      <c r="AG54" s="58"/>
+      <c r="AH54" s="58"/>
+      <c r="AI54" s="58"/>
+      <c r="AJ54" s="58"/>
+      <c r="AK54" s="59"/>
+      <c r="AL54" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AM54" s="81"/>
-      <c r="AN54" s="81"/>
-      <c r="AO54" s="81"/>
-      <c r="AP54" s="81"/>
-      <c r="AQ54" s="81"/>
-      <c r="AR54" s="81"/>
-      <c r="AS54" s="81"/>
-      <c r="AT54" s="81"/>
-      <c r="AU54" s="81"/>
-      <c r="AV54" s="81"/>
-      <c r="AW54" s="81"/>
-      <c r="AX54" s="81"/>
-      <c r="AY54" s="81"/>
-      <c r="AZ54" s="81"/>
-      <c r="BA54" s="81"/>
-      <c r="BB54" s="81"/>
-      <c r="BC54" s="81"/>
-      <c r="BD54" s="81"/>
-      <c r="BE54" s="81"/>
-      <c r="BF54" s="81"/>
-      <c r="BG54" s="81"/>
-      <c r="BH54" s="81"/>
-      <c r="BI54" s="81"/>
-      <c r="BJ54" s="81"/>
-      <c r="BK54" s="82"/>
+      <c r="AM54" s="48"/>
+      <c r="AN54" s="48"/>
+      <c r="AO54" s="48"/>
+      <c r="AP54" s="48"/>
+      <c r="AQ54" s="48"/>
+      <c r="AR54" s="48"/>
+      <c r="AS54" s="48"/>
+      <c r="AT54" s="48"/>
+      <c r="AU54" s="48"/>
+      <c r="AV54" s="48"/>
+      <c r="AW54" s="48"/>
+      <c r="AX54" s="48"/>
+      <c r="AY54" s="48"/>
+      <c r="AZ54" s="48"/>
+      <c r="BA54" s="48"/>
+      <c r="BB54" s="48"/>
+      <c r="BC54" s="48"/>
+      <c r="BD54" s="48"/>
+      <c r="BE54" s="48"/>
+      <c r="BF54" s="48"/>
+      <c r="BG54" s="48"/>
+      <c r="BH54" s="48"/>
+      <c r="BI54" s="48"/>
+      <c r="BJ54" s="48"/>
+      <c r="BK54" s="56"/>
       <c r="BL54" s="26"/>
       <c r="BM54" s="26"/>
       <c r="BN54" s="26"/>
@@ -17980,10 +17973,10 @@
       <c r="CF54" s="26"/>
       <c r="CG54" s="26"/>
       <c r="CH54" s="26"/>
-      <c r="CI54" s="103"/>
+      <c r="CI54" s="44"/>
       <c r="AMI54" s="6"/>
     </row>
-    <row r="55" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B55" s="10"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -18069,101 +18062,101 @@
       <c r="CF55" s="26"/>
       <c r="CG55" s="26"/>
       <c r="CH55" s="26"/>
-      <c r="CI55" s="103"/>
+      <c r="CI55" s="44"/>
       <c r="AMI55" s="6"/>
     </row>
-    <row r="56" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="104" t="s">
-        <v>60</v>
+    <row r="56" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B56" s="60" t="s">
+        <v>59</v>
       </c>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="105"/>
-      <c r="O56" s="105"/>
-      <c r="P56" s="105"/>
-      <c r="Q56" s="105"/>
-      <c r="R56" s="105"/>
-      <c r="S56" s="105"/>
-      <c r="T56" s="105"/>
-      <c r="U56" s="105"/>
-      <c r="V56" s="105"/>
-      <c r="W56" s="105"/>
-      <c r="X56" s="105"/>
-      <c r="Y56" s="105"/>
-      <c r="Z56" s="105"/>
-      <c r="AA56" s="105"/>
-      <c r="AB56" s="105"/>
-      <c r="AC56" s="105"/>
-      <c r="AD56" s="105"/>
-      <c r="AE56" s="105"/>
-      <c r="AF56" s="105"/>
-      <c r="AG56" s="105"/>
-      <c r="AH56" s="105"/>
-      <c r="AI56" s="105"/>
-      <c r="AJ56" s="105"/>
-      <c r="AK56" s="105"/>
-      <c r="AL56" s="105"/>
-      <c r="AM56" s="105"/>
-      <c r="AN56" s="105"/>
-      <c r="AO56" s="105"/>
-      <c r="AP56" s="105"/>
-      <c r="AQ56" s="105"/>
-      <c r="AR56" s="105"/>
-      <c r="AS56" s="105"/>
-      <c r="AT56" s="105"/>
-      <c r="AU56" s="105"/>
-      <c r="AV56" s="105"/>
-      <c r="AW56" s="105"/>
-      <c r="AX56" s="105"/>
-      <c r="AY56" s="105"/>
-      <c r="AZ56" s="105"/>
-      <c r="BA56" s="105"/>
-      <c r="BB56" s="105"/>
-      <c r="BC56" s="105"/>
-      <c r="BD56" s="105"/>
-      <c r="BE56" s="105"/>
-      <c r="BF56" s="105"/>
-      <c r="BG56" s="105"/>
-      <c r="BH56" s="105"/>
-      <c r="BI56" s="105"/>
-      <c r="BJ56" s="105"/>
-      <c r="BK56" s="105"/>
-      <c r="BL56" s="105"/>
-      <c r="BM56" s="105"/>
-      <c r="BN56" s="105"/>
-      <c r="BO56" s="105"/>
-      <c r="BP56" s="105"/>
-      <c r="BQ56" s="105"/>
-      <c r="BR56" s="105"/>
-      <c r="BS56" s="105"/>
-      <c r="BT56" s="105"/>
-      <c r="BU56" s="105"/>
-      <c r="BV56" s="105"/>
-      <c r="BW56" s="105"/>
-      <c r="BX56" s="105"/>
-      <c r="BY56" s="105"/>
-      <c r="BZ56" s="105"/>
-      <c r="CA56" s="105"/>
-      <c r="CB56" s="105"/>
-      <c r="CC56" s="105"/>
-      <c r="CD56" s="105"/>
-      <c r="CE56" s="105"/>
-      <c r="CF56" s="105"/>
-      <c r="CG56" s="105"/>
-      <c r="CH56" s="105"/>
-      <c r="CI56" s="106"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="61"/>
+      <c r="AK56" s="61"/>
+      <c r="AL56" s="61"/>
+      <c r="AM56" s="61"/>
+      <c r="AN56" s="61"/>
+      <c r="AO56" s="61"/>
+      <c r="AP56" s="61"/>
+      <c r="AQ56" s="61"/>
+      <c r="AR56" s="61"/>
+      <c r="AS56" s="61"/>
+      <c r="AT56" s="61"/>
+      <c r="AU56" s="61"/>
+      <c r="AV56" s="61"/>
+      <c r="AW56" s="61"/>
+      <c r="AX56" s="61"/>
+      <c r="AY56" s="61"/>
+      <c r="AZ56" s="61"/>
+      <c r="BA56" s="61"/>
+      <c r="BB56" s="61"/>
+      <c r="BC56" s="61"/>
+      <c r="BD56" s="61"/>
+      <c r="BE56" s="61"/>
+      <c r="BF56" s="61"/>
+      <c r="BG56" s="61"/>
+      <c r="BH56" s="61"/>
+      <c r="BI56" s="61"/>
+      <c r="BJ56" s="61"/>
+      <c r="BK56" s="61"/>
+      <c r="BL56" s="61"/>
+      <c r="BM56" s="61"/>
+      <c r="BN56" s="61"/>
+      <c r="BO56" s="61"/>
+      <c r="BP56" s="61"/>
+      <c r="BQ56" s="61"/>
+      <c r="BR56" s="61"/>
+      <c r="BS56" s="61"/>
+      <c r="BT56" s="61"/>
+      <c r="BU56" s="61"/>
+      <c r="BV56" s="61"/>
+      <c r="BW56" s="61"/>
+      <c r="BX56" s="61"/>
+      <c r="BY56" s="61"/>
+      <c r="BZ56" s="61"/>
+      <c r="CA56" s="61"/>
+      <c r="CB56" s="61"/>
+      <c r="CC56" s="61"/>
+      <c r="CD56" s="61"/>
+      <c r="CE56" s="61"/>
+      <c r="CF56" s="61"/>
+      <c r="CG56" s="61"/>
+      <c r="CH56" s="61"/>
+      <c r="CI56" s="62"/>
       <c r="AMI56" s="6"/>
     </row>
-    <row r="57" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B57" s="27"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
@@ -18252,75 +18245,75 @@
       <c r="CI57" s="30"/>
       <c r="AMI57" s="6"/>
     </row>
-    <row r="58" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B58" s="27"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
-      <c r="G58" s="45" t="s">
+      <c r="G58" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="83"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="85" t="s">
+      <c r="H58" s="67"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="86"/>
-      <c r="N58" s="86"/>
-      <c r="O58" s="86"/>
-      <c r="P58" s="86"/>
-      <c r="Q58" s="86"/>
-      <c r="R58" s="86"/>
-      <c r="S58" s="86"/>
-      <c r="T58" s="83"/>
-      <c r="U58" s="83"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
-      <c r="X58" s="84"/>
-      <c r="Y58" s="45" t="s">
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="70"/>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="70"/>
+      <c r="R58" s="70"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="Z58" s="95"/>
-      <c r="AA58" s="95"/>
-      <c r="AB58" s="95"/>
-      <c r="AC58" s="95"/>
-      <c r="AD58" s="95"/>
-      <c r="AE58" s="95"/>
-      <c r="AF58" s="95"/>
-      <c r="AG58" s="95"/>
-      <c r="AH58" s="95"/>
-      <c r="AI58" s="95"/>
-      <c r="AJ58" s="95"/>
-      <c r="AK58" s="95"/>
-      <c r="AL58" s="95"/>
-      <c r="AM58" s="95"/>
-      <c r="AN58" s="95"/>
-      <c r="AO58" s="95"/>
-      <c r="AP58" s="95"/>
-      <c r="AQ58" s="95"/>
-      <c r="AR58" s="95"/>
-      <c r="AS58" s="95"/>
-      <c r="AT58" s="95"/>
-      <c r="AU58" s="95"/>
-      <c r="AV58" s="95"/>
-      <c r="AW58" s="95"/>
-      <c r="AX58" s="95"/>
-      <c r="AY58" s="95"/>
-      <c r="AZ58" s="95"/>
-      <c r="BA58" s="95"/>
-      <c r="BB58" s="95"/>
-      <c r="BC58" s="95"/>
-      <c r="BD58" s="95"/>
-      <c r="BE58" s="95"/>
-      <c r="BF58" s="95"/>
-      <c r="BG58" s="95"/>
-      <c r="BH58" s="95"/>
-      <c r="BI58" s="95"/>
-      <c r="BJ58" s="95"/>
-      <c r="BK58" s="96"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="71"/>
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="71"/>
+      <c r="AE58" s="71"/>
+      <c r="AF58" s="71"/>
+      <c r="AG58" s="71"/>
+      <c r="AH58" s="71"/>
+      <c r="AI58" s="71"/>
+      <c r="AJ58" s="71"/>
+      <c r="AK58" s="71"/>
+      <c r="AL58" s="71"/>
+      <c r="AM58" s="71"/>
+      <c r="AN58" s="71"/>
+      <c r="AO58" s="71"/>
+      <c r="AP58" s="71"/>
+      <c r="AQ58" s="71"/>
+      <c r="AR58" s="71"/>
+      <c r="AS58" s="71"/>
+      <c r="AT58" s="71"/>
+      <c r="AU58" s="71"/>
+      <c r="AV58" s="71"/>
+      <c r="AW58" s="71"/>
+      <c r="AX58" s="71"/>
+      <c r="AY58" s="71"/>
+      <c r="AZ58" s="71"/>
+      <c r="BA58" s="71"/>
+      <c r="BB58" s="71"/>
+      <c r="BC58" s="71"/>
+      <c r="BD58" s="71"/>
+      <c r="BE58" s="71"/>
+      <c r="BF58" s="71"/>
+      <c r="BG58" s="71"/>
+      <c r="BH58" s="71"/>
+      <c r="BI58" s="71"/>
+      <c r="BJ58" s="71"/>
+      <c r="BK58" s="72"/>
       <c r="BL58" s="29"/>
       <c r="BM58" s="29"/>
       <c r="BN58" s="29"/>
@@ -18347,75 +18340,75 @@
       <c r="CI58" s="30"/>
       <c r="AMI58" s="6"/>
     </row>
-    <row r="59" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B59" s="27"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
       <c r="F59" s="29"/>
-      <c r="G59" s="42">
+      <c r="G59" s="47">
         <v>1</v>
       </c>
-      <c r="H59" s="43"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="42" t="s">
+      <c r="H59" s="73"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="44"/>
-      <c r="Y59" s="42" t="s">
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="73"/>
+      <c r="W59" s="73"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Z59" s="81"/>
-      <c r="AA59" s="81"/>
-      <c r="AB59" s="81"/>
-      <c r="AC59" s="81"/>
-      <c r="AD59" s="81"/>
-      <c r="AE59" s="81"/>
-      <c r="AF59" s="81"/>
-      <c r="AG59" s="81"/>
-      <c r="AH59" s="81"/>
-      <c r="AI59" s="81"/>
-      <c r="AJ59" s="81"/>
-      <c r="AK59" s="81"/>
-      <c r="AL59" s="81"/>
-      <c r="AM59" s="81"/>
-      <c r="AN59" s="81"/>
-      <c r="AO59" s="81"/>
-      <c r="AP59" s="81"/>
-      <c r="AQ59" s="81"/>
-      <c r="AR59" s="81"/>
-      <c r="AS59" s="81"/>
-      <c r="AT59" s="81"/>
-      <c r="AU59" s="81"/>
-      <c r="AV59" s="81"/>
-      <c r="AW59" s="81"/>
-      <c r="AX59" s="81"/>
-      <c r="AY59" s="81"/>
-      <c r="AZ59" s="81"/>
-      <c r="BA59" s="81"/>
-      <c r="BB59" s="81"/>
-      <c r="BC59" s="81"/>
-      <c r="BD59" s="81"/>
-      <c r="BE59" s="81"/>
-      <c r="BF59" s="81"/>
-      <c r="BG59" s="81"/>
-      <c r="BH59" s="81"/>
-      <c r="BI59" s="81"/>
-      <c r="BJ59" s="81"/>
-      <c r="BK59" s="82"/>
+      <c r="Z59" s="48"/>
+      <c r="AA59" s="48"/>
+      <c r="AB59" s="48"/>
+      <c r="AC59" s="48"/>
+      <c r="AD59" s="48"/>
+      <c r="AE59" s="48"/>
+      <c r="AF59" s="48"/>
+      <c r="AG59" s="48"/>
+      <c r="AH59" s="48"/>
+      <c r="AI59" s="48"/>
+      <c r="AJ59" s="48"/>
+      <c r="AK59" s="48"/>
+      <c r="AL59" s="48"/>
+      <c r="AM59" s="48"/>
+      <c r="AN59" s="48"/>
+      <c r="AO59" s="48"/>
+      <c r="AP59" s="48"/>
+      <c r="AQ59" s="48"/>
+      <c r="AR59" s="48"/>
+      <c r="AS59" s="48"/>
+      <c r="AT59" s="48"/>
+      <c r="AU59" s="48"/>
+      <c r="AV59" s="48"/>
+      <c r="AW59" s="48"/>
+      <c r="AX59" s="48"/>
+      <c r="AY59" s="48"/>
+      <c r="AZ59" s="48"/>
+      <c r="BA59" s="48"/>
+      <c r="BB59" s="48"/>
+      <c r="BC59" s="48"/>
+      <c r="BD59" s="48"/>
+      <c r="BE59" s="48"/>
+      <c r="BF59" s="48"/>
+      <c r="BG59" s="48"/>
+      <c r="BH59" s="48"/>
+      <c r="BI59" s="48"/>
+      <c r="BJ59" s="48"/>
+      <c r="BK59" s="56"/>
       <c r="BL59" s="29"/>
       <c r="BM59" s="29"/>
       <c r="BN59" s="29"/>
@@ -18442,75 +18435,75 @@
       <c r="CI59" s="30"/>
       <c r="AMI59" s="6"/>
     </row>
-    <row r="60" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B60" s="27"/>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
-      <c r="G60" s="42">
+      <c r="G60" s="47">
         <v>2</v>
       </c>
-      <c r="H60" s="43"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="42" t="s">
+      <c r="H60" s="73"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="43"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
-      <c r="W60" s="43"/>
-      <c r="X60" s="44"/>
-      <c r="Y60" s="42" t="s">
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="73"/>
+      <c r="X60" s="74"/>
+      <c r="Y60" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="Z60" s="81"/>
-      <c r="AA60" s="81"/>
-      <c r="AB60" s="81"/>
-      <c r="AC60" s="81"/>
-      <c r="AD60" s="81"/>
-      <c r="AE60" s="81"/>
-      <c r="AF60" s="81"/>
-      <c r="AG60" s="81"/>
-      <c r="AH60" s="81"/>
-      <c r="AI60" s="81"/>
-      <c r="AJ60" s="81"/>
-      <c r="AK60" s="81"/>
-      <c r="AL60" s="81"/>
-      <c r="AM60" s="81"/>
-      <c r="AN60" s="81"/>
-      <c r="AO60" s="81"/>
-      <c r="AP60" s="81"/>
-      <c r="AQ60" s="81"/>
-      <c r="AR60" s="81"/>
-      <c r="AS60" s="81"/>
-      <c r="AT60" s="81"/>
-      <c r="AU60" s="81"/>
-      <c r="AV60" s="81"/>
-      <c r="AW60" s="81"/>
-      <c r="AX60" s="81"/>
-      <c r="AY60" s="81"/>
-      <c r="AZ60" s="81"/>
-      <c r="BA60" s="81"/>
-      <c r="BB60" s="81"/>
-      <c r="BC60" s="81"/>
-      <c r="BD60" s="81"/>
-      <c r="BE60" s="81"/>
-      <c r="BF60" s="81"/>
-      <c r="BG60" s="81"/>
-      <c r="BH60" s="81"/>
-      <c r="BI60" s="81"/>
-      <c r="BJ60" s="81"/>
-      <c r="BK60" s="82"/>
+      <c r="Z60" s="48"/>
+      <c r="AA60" s="48"/>
+      <c r="AB60" s="48"/>
+      <c r="AC60" s="48"/>
+      <c r="AD60" s="48"/>
+      <c r="AE60" s="48"/>
+      <c r="AF60" s="48"/>
+      <c r="AG60" s="48"/>
+      <c r="AH60" s="48"/>
+      <c r="AI60" s="48"/>
+      <c r="AJ60" s="48"/>
+      <c r="AK60" s="48"/>
+      <c r="AL60" s="48"/>
+      <c r="AM60" s="48"/>
+      <c r="AN60" s="48"/>
+      <c r="AO60" s="48"/>
+      <c r="AP60" s="48"/>
+      <c r="AQ60" s="48"/>
+      <c r="AR60" s="48"/>
+      <c r="AS60" s="48"/>
+      <c r="AT60" s="48"/>
+      <c r="AU60" s="48"/>
+      <c r="AV60" s="48"/>
+      <c r="AW60" s="48"/>
+      <c r="AX60" s="48"/>
+      <c r="AY60" s="48"/>
+      <c r="AZ60" s="48"/>
+      <c r="BA60" s="48"/>
+      <c r="BB60" s="48"/>
+      <c r="BC60" s="48"/>
+      <c r="BD60" s="48"/>
+      <c r="BE60" s="48"/>
+      <c r="BF60" s="48"/>
+      <c r="BG60" s="48"/>
+      <c r="BH60" s="48"/>
+      <c r="BI60" s="48"/>
+      <c r="BJ60" s="48"/>
+      <c r="BK60" s="56"/>
       <c r="BL60" s="29"/>
       <c r="BM60" s="29"/>
       <c r="BN60" s="29"/>
@@ -18537,7 +18530,7 @@
       <c r="CI60" s="30"/>
       <c r="AMI60" s="6"/>
     </row>
-    <row r="61" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B61" s="27"/>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -18626,187 +18619,187 @@
       <c r="CI61" s="30"/>
       <c r="AMI61" s="6"/>
     </row>
-    <row r="62" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="104" t="s">
-        <v>61</v>
+    <row r="62" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B62" s="60" t="s">
+        <v>60</v>
       </c>
-      <c r="C62" s="105"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="105"/>
-      <c r="J62" s="105"/>
-      <c r="K62" s="105"/>
-      <c r="L62" s="105"/>
-      <c r="M62" s="105"/>
-      <c r="N62" s="105"/>
-      <c r="O62" s="105"/>
-      <c r="P62" s="105"/>
-      <c r="Q62" s="105"/>
-      <c r="R62" s="105"/>
-      <c r="S62" s="105"/>
-      <c r="T62" s="105"/>
-      <c r="U62" s="105"/>
-      <c r="V62" s="105"/>
-      <c r="W62" s="105"/>
-      <c r="X62" s="105"/>
-      <c r="Y62" s="105"/>
-      <c r="Z62" s="105"/>
-      <c r="AA62" s="105"/>
-      <c r="AB62" s="105"/>
-      <c r="AC62" s="105"/>
-      <c r="AD62" s="105"/>
-      <c r="AE62" s="105"/>
-      <c r="AF62" s="105"/>
-      <c r="AG62" s="105"/>
-      <c r="AH62" s="105"/>
-      <c r="AI62" s="105"/>
-      <c r="AJ62" s="105"/>
-      <c r="AK62" s="105"/>
-      <c r="AL62" s="105"/>
-      <c r="AM62" s="105"/>
-      <c r="AN62" s="105"/>
-      <c r="AO62" s="105"/>
-      <c r="AP62" s="105"/>
-      <c r="AQ62" s="105"/>
-      <c r="AR62" s="105"/>
-      <c r="AS62" s="105"/>
-      <c r="AT62" s="105"/>
-      <c r="AU62" s="105"/>
-      <c r="AV62" s="105"/>
-      <c r="AW62" s="105"/>
-      <c r="AX62" s="105"/>
-      <c r="AY62" s="105"/>
-      <c r="AZ62" s="105"/>
-      <c r="BA62" s="105"/>
-      <c r="BB62" s="105"/>
-      <c r="BC62" s="105"/>
-      <c r="BD62" s="105"/>
-      <c r="BE62" s="105"/>
-      <c r="BF62" s="105"/>
-      <c r="BG62" s="105"/>
-      <c r="BH62" s="105"/>
-      <c r="BI62" s="105"/>
-      <c r="BJ62" s="105"/>
-      <c r="BK62" s="105"/>
-      <c r="BL62" s="105"/>
-      <c r="BM62" s="105"/>
-      <c r="BN62" s="105"/>
-      <c r="BO62" s="105"/>
-      <c r="BP62" s="105"/>
-      <c r="BQ62" s="105"/>
-      <c r="BR62" s="105"/>
-      <c r="BS62" s="105"/>
-      <c r="BT62" s="105"/>
-      <c r="BU62" s="105"/>
-      <c r="BV62" s="105"/>
-      <c r="BW62" s="105"/>
-      <c r="BX62" s="105"/>
-      <c r="BY62" s="105"/>
-      <c r="BZ62" s="105"/>
-      <c r="CA62" s="105"/>
-      <c r="CB62" s="105"/>
-      <c r="CC62" s="105"/>
-      <c r="CD62" s="105"/>
-      <c r="CE62" s="105"/>
-      <c r="CF62" s="105"/>
-      <c r="CG62" s="105"/>
-      <c r="CH62" s="105"/>
-      <c r="CI62" s="106"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="61"/>
+      <c r="U62" s="61"/>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61"/>
+      <c r="X62" s="61"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="61"/>
+      <c r="AA62" s="61"/>
+      <c r="AB62" s="61"/>
+      <c r="AC62" s="61"/>
+      <c r="AD62" s="61"/>
+      <c r="AE62" s="61"/>
+      <c r="AF62" s="61"/>
+      <c r="AG62" s="61"/>
+      <c r="AH62" s="61"/>
+      <c r="AI62" s="61"/>
+      <c r="AJ62" s="61"/>
+      <c r="AK62" s="61"/>
+      <c r="AL62" s="61"/>
+      <c r="AM62" s="61"/>
+      <c r="AN62" s="61"/>
+      <c r="AO62" s="61"/>
+      <c r="AP62" s="61"/>
+      <c r="AQ62" s="61"/>
+      <c r="AR62" s="61"/>
+      <c r="AS62" s="61"/>
+      <c r="AT62" s="61"/>
+      <c r="AU62" s="61"/>
+      <c r="AV62" s="61"/>
+      <c r="AW62" s="61"/>
+      <c r="AX62" s="61"/>
+      <c r="AY62" s="61"/>
+      <c r="AZ62" s="61"/>
+      <c r="BA62" s="61"/>
+      <c r="BB62" s="61"/>
+      <c r="BC62" s="61"/>
+      <c r="BD62" s="61"/>
+      <c r="BE62" s="61"/>
+      <c r="BF62" s="61"/>
+      <c r="BG62" s="61"/>
+      <c r="BH62" s="61"/>
+      <c r="BI62" s="61"/>
+      <c r="BJ62" s="61"/>
+      <c r="BK62" s="61"/>
+      <c r="BL62" s="61"/>
+      <c r="BM62" s="61"/>
+      <c r="BN62" s="61"/>
+      <c r="BO62" s="61"/>
+      <c r="BP62" s="61"/>
+      <c r="BQ62" s="61"/>
+      <c r="BR62" s="61"/>
+      <c r="BS62" s="61"/>
+      <c r="BT62" s="61"/>
+      <c r="BU62" s="61"/>
+      <c r="BV62" s="61"/>
+      <c r="BW62" s="61"/>
+      <c r="BX62" s="61"/>
+      <c r="BY62" s="61"/>
+      <c r="BZ62" s="61"/>
+      <c r="CA62" s="61"/>
+      <c r="CB62" s="61"/>
+      <c r="CC62" s="61"/>
+      <c r="CD62" s="61"/>
+      <c r="CE62" s="61"/>
+      <c r="CF62" s="61"/>
+      <c r="CG62" s="61"/>
+      <c r="CH62" s="61"/>
+      <c r="CI62" s="62"/>
       <c r="AMI62" s="6"/>
     </row>
-    <row r="63" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B63" s="107"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="108"/>
-      <c r="I63" s="108"/>
-      <c r="J63" s="108"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="108"/>
-      <c r="M63" s="108"/>
-      <c r="N63" s="108"/>
-      <c r="O63" s="108"/>
-      <c r="P63" s="108"/>
-      <c r="Q63" s="108"/>
-      <c r="R63" s="108"/>
-      <c r="S63" s="108"/>
-      <c r="T63" s="108"/>
-      <c r="U63" s="108"/>
-      <c r="V63" s="108"/>
-      <c r="W63" s="108"/>
-      <c r="X63" s="108"/>
-      <c r="Y63" s="108"/>
-      <c r="Z63" s="108"/>
-      <c r="AA63" s="108"/>
-      <c r="AB63" s="108"/>
-      <c r="AC63" s="108"/>
-      <c r="AD63" s="108"/>
-      <c r="AE63" s="108"/>
-      <c r="AF63" s="108"/>
-      <c r="AG63" s="108"/>
-      <c r="AH63" s="108"/>
-      <c r="AI63" s="108"/>
-      <c r="AJ63" s="108"/>
-      <c r="AK63" s="108"/>
-      <c r="AL63" s="108"/>
-      <c r="AM63" s="108"/>
-      <c r="AN63" s="108"/>
-      <c r="AO63" s="108"/>
-      <c r="AP63" s="108"/>
-      <c r="AQ63" s="108"/>
-      <c r="AR63" s="108"/>
-      <c r="AS63" s="108"/>
-      <c r="AT63" s="108"/>
-      <c r="AU63" s="108"/>
-      <c r="AV63" s="108"/>
-      <c r="AW63" s="108"/>
-      <c r="AX63" s="108"/>
-      <c r="AY63" s="108"/>
-      <c r="AZ63" s="108"/>
-      <c r="BA63" s="108"/>
-      <c r="BB63" s="108"/>
-      <c r="BC63" s="108"/>
-      <c r="BD63" s="108"/>
-      <c r="BE63" s="108"/>
-      <c r="BF63" s="108"/>
-      <c r="BG63" s="108"/>
-      <c r="BH63" s="108"/>
-      <c r="BI63" s="108"/>
-      <c r="BJ63" s="108"/>
-      <c r="BK63" s="108"/>
-      <c r="BL63" s="108"/>
-      <c r="BM63" s="108"/>
-      <c r="BN63" s="108"/>
-      <c r="BO63" s="108"/>
-      <c r="BP63" s="108"/>
-      <c r="BQ63" s="108"/>
-      <c r="BR63" s="108"/>
-      <c r="BS63" s="108"/>
-      <c r="BT63" s="108"/>
-      <c r="BU63" s="108"/>
-      <c r="BV63" s="108"/>
-      <c r="BW63" s="108"/>
-      <c r="BX63" s="108"/>
-      <c r="BY63" s="108"/>
-      <c r="BZ63" s="108"/>
-      <c r="CA63" s="108"/>
-      <c r="CB63" s="108"/>
-      <c r="CC63" s="108"/>
-      <c r="CD63" s="108"/>
-      <c r="CE63" s="108"/>
-      <c r="CF63" s="108"/>
-      <c r="CG63" s="108"/>
-      <c r="CH63" s="108"/>
-      <c r="CI63" s="109"/>
+    <row r="63" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="T63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="64"/>
+      <c r="Y63" s="64"/>
+      <c r="Z63" s="64"/>
+      <c r="AA63" s="64"/>
+      <c r="AB63" s="64"/>
+      <c r="AC63" s="64"/>
+      <c r="AD63" s="64"/>
+      <c r="AE63" s="64"/>
+      <c r="AF63" s="64"/>
+      <c r="AG63" s="64"/>
+      <c r="AH63" s="64"/>
+      <c r="AI63" s="64"/>
+      <c r="AJ63" s="64"/>
+      <c r="AK63" s="64"/>
+      <c r="AL63" s="64"/>
+      <c r="AM63" s="64"/>
+      <c r="AN63" s="64"/>
+      <c r="AO63" s="64"/>
+      <c r="AP63" s="64"/>
+      <c r="AQ63" s="64"/>
+      <c r="AR63" s="64"/>
+      <c r="AS63" s="64"/>
+      <c r="AT63" s="64"/>
+      <c r="AU63" s="64"/>
+      <c r="AV63" s="64"/>
+      <c r="AW63" s="64"/>
+      <c r="AX63" s="64"/>
+      <c r="AY63" s="64"/>
+      <c r="AZ63" s="64"/>
+      <c r="BA63" s="64"/>
+      <c r="BB63" s="64"/>
+      <c r="BC63" s="64"/>
+      <c r="BD63" s="64"/>
+      <c r="BE63" s="64"/>
+      <c r="BF63" s="64"/>
+      <c r="BG63" s="64"/>
+      <c r="BH63" s="64"/>
+      <c r="BI63" s="64"/>
+      <c r="BJ63" s="64"/>
+      <c r="BK63" s="64"/>
+      <c r="BL63" s="64"/>
+      <c r="BM63" s="64"/>
+      <c r="BN63" s="64"/>
+      <c r="BO63" s="64"/>
+      <c r="BP63" s="64"/>
+      <c r="BQ63" s="64"/>
+      <c r="BR63" s="64"/>
+      <c r="BS63" s="64"/>
+      <c r="BT63" s="64"/>
+      <c r="BU63" s="64"/>
+      <c r="BV63" s="64"/>
+      <c r="BW63" s="64"/>
+      <c r="BX63" s="64"/>
+      <c r="BY63" s="64"/>
+      <c r="BZ63" s="64"/>
+      <c r="CA63" s="64"/>
+      <c r="CB63" s="64"/>
+      <c r="CC63" s="64"/>
+      <c r="CD63" s="64"/>
+      <c r="CE63" s="64"/>
+      <c r="CF63" s="64"/>
+      <c r="CG63" s="64"/>
+      <c r="CH63" s="64"/>
+      <c r="CI63" s="65"/>
       <c r="AMI63" s="6"/>
     </row>
-    <row r="64" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:1023" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="21"/>
@@ -18895,25 +18888,25 @@
       <c r="CI64" s="8"/>
       <c r="AMI64" s="6"/>
     </row>
-    <row r="65" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="AJA65" s="6"/>
     </row>
-    <row r="66" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="AJA66" s="6"/>
     </row>
-    <row r="67" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="AJA67" s="6"/>
     </row>
-    <row r="68" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="AJA68" s="6"/>
     </row>
-    <row r="69" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="AJC69" s="6"/>
     </row>
-    <row r="70" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:939" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="AJC70" s="6"/>
     </row>
-    <row r="71" spans="1:939" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:939" s="1" customFormat="1">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -19854,7 +19847,7 @@
       <c r="AJB71" s="6"/>
       <c r="AJC71" s="6"/>
     </row>
-    <row r="72" spans="1:939" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:939" s="1" customFormat="1">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -20795,7 +20788,7 @@
       <c r="AJB72" s="6"/>
       <c r="AJC72" s="6"/>
     </row>
-    <row r="73" spans="1:939" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:939" s="1" customFormat="1">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -21736,7 +21729,7 @@
       <c r="AJB73" s="6"/>
       <c r="AJC73" s="6"/>
     </row>
-    <row r="74" spans="1:939" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:939" s="1" customFormat="1">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -22677,7 +22670,7 @@
       <c r="AJB74" s="6"/>
       <c r="AJC74" s="6"/>
     </row>
-    <row r="75" spans="1:939" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:939" s="1" customFormat="1">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -23618,7 +23611,7 @@
       <c r="AJB75" s="6"/>
       <c r="AJC75" s="6"/>
     </row>
-    <row r="76" spans="1:939" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:939" s="1" customFormat="1">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -24559,7 +24552,7 @@
       <c r="AJB76" s="6"/>
       <c r="AJC76" s="6"/>
     </row>
-    <row r="77" spans="1:939" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:939" s="1" customFormat="1">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -25500,7 +25493,7 @@
       <c r="AJB77" s="6"/>
       <c r="AJC77" s="6"/>
     </row>
-    <row r="78" spans="1:939" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:939" s="1" customFormat="1">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -26441,7 +26434,7 @@
       <c r="AJB78" s="6"/>
       <c r="AJC78" s="6"/>
     </row>
-    <row r="79" spans="1:939" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:939" s="1" customFormat="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -27382,7 +27375,7 @@
       <c r="AJB79" s="6"/>
       <c r="AJC79" s="6"/>
     </row>
-    <row r="80" spans="1:939" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:939" s="1" customFormat="1">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -28323,7 +28316,7 @@
       <c r="AJB80" s="6"/>
       <c r="AJC80" s="6"/>
     </row>
-    <row r="81" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="81" spans="940:1025">
       <c r="AJD81" s="1"/>
       <c r="AJE81" s="1"/>
       <c r="AJF81" s="1"/>
@@ -28411,7 +28404,7 @@
       <c r="AMJ81" s="1"/>
       <c r="AMK81" s="1"/>
     </row>
-    <row r="82" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="82" spans="940:1025">
       <c r="AJD82" s="1"/>
       <c r="AJE82" s="1"/>
       <c r="AJF82" s="1"/>
@@ -28499,7 +28492,7 @@
       <c r="AMJ82" s="1"/>
       <c r="AMK82" s="1"/>
     </row>
-    <row r="83" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="83" spans="940:1025">
       <c r="AJD83" s="1"/>
       <c r="AJE83" s="1"/>
       <c r="AJF83" s="1"/>
@@ -28587,7 +28580,7 @@
       <c r="AMJ83" s="1"/>
       <c r="AMK83" s="1"/>
     </row>
-    <row r="84" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="84" spans="940:1025">
       <c r="AJD84" s="1"/>
       <c r="AJE84" s="1"/>
       <c r="AJF84" s="1"/>
@@ -28675,7 +28668,7 @@
       <c r="AMJ84" s="1"/>
       <c r="AMK84" s="1"/>
     </row>
-    <row r="85" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="85" spans="940:1025">
       <c r="AJD85" s="1"/>
       <c r="AJE85" s="1"/>
       <c r="AJF85" s="1"/>
@@ -28763,7 +28756,7 @@
       <c r="AMJ85" s="1"/>
       <c r="AMK85" s="1"/>
     </row>
-    <row r="93" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="93" spans="940:1025">
       <c r="AJD93" s="1"/>
       <c r="AJE93" s="1"/>
       <c r="AJF93" s="1"/>
@@ -28851,7 +28844,7 @@
       <c r="AMJ93" s="1"/>
       <c r="AMK93" s="1"/>
     </row>
-    <row r="94" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="94" spans="940:1025">
       <c r="AJD94" s="1"/>
       <c r="AJE94" s="1"/>
       <c r="AJF94" s="1"/>
@@ -28939,7 +28932,7 @@
       <c r="AMJ94" s="1"/>
       <c r="AMK94" s="1"/>
     </row>
-    <row r="95" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="95" spans="940:1025">
       <c r="AJD95" s="1"/>
       <c r="AJE95" s="1"/>
       <c r="AJF95" s="1"/>
@@ -29027,7 +29020,7 @@
       <c r="AMJ95" s="1"/>
       <c r="AMK95" s="1"/>
     </row>
-    <row r="96" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="96" spans="940:1025">
       <c r="AJD96" s="1"/>
       <c r="AJE96" s="1"/>
       <c r="AJF96" s="1"/>
@@ -29115,7 +29108,7 @@
       <c r="AMJ96" s="1"/>
       <c r="AMK96" s="1"/>
     </row>
-    <row r="97" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="97" spans="940:1025">
       <c r="AJD97" s="1"/>
       <c r="AJE97" s="1"/>
       <c r="AJF97" s="1"/>
@@ -29203,7 +29196,7 @@
       <c r="AMJ97" s="1"/>
       <c r="AMK97" s="1"/>
     </row>
-    <row r="98" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="98" spans="940:1025">
       <c r="AJD98" s="1"/>
       <c r="AJE98" s="1"/>
       <c r="AJF98" s="1"/>
@@ -29291,7 +29284,7 @@
       <c r="AMJ98" s="1"/>
       <c r="AMK98" s="1"/>
     </row>
-    <row r="99" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="99" spans="940:1025">
       <c r="AJD99" s="1"/>
       <c r="AJE99" s="1"/>
       <c r="AJF99" s="1"/>
@@ -29379,7 +29372,7 @@
       <c r="AMJ99" s="1"/>
       <c r="AMK99" s="1"/>
     </row>
-    <row r="100" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="100" spans="940:1025">
       <c r="AJD100" s="1"/>
       <c r="AJE100" s="1"/>
       <c r="AJF100" s="1"/>
@@ -29467,7 +29460,7 @@
       <c r="AMJ100" s="1"/>
       <c r="AMK100" s="1"/>
     </row>
-    <row r="101" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="101" spans="940:1025">
       <c r="AJD101" s="1"/>
       <c r="AJE101" s="1"/>
       <c r="AJF101" s="1"/>
@@ -29555,7 +29548,7 @@
       <c r="AMJ101" s="1"/>
       <c r="AMK101" s="1"/>
     </row>
-    <row r="102" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="102" spans="940:1025">
       <c r="AJD102" s="1"/>
       <c r="AJE102" s="1"/>
       <c r="AJF102" s="1"/>
@@ -29643,7 +29636,7 @@
       <c r="AMJ102" s="1"/>
       <c r="AMK102" s="1"/>
     </row>
-    <row r="103" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="103" spans="940:1025">
       <c r="AJD103" s="1"/>
       <c r="AJE103" s="1"/>
       <c r="AJF103" s="1"/>
@@ -29731,7 +29724,7 @@
       <c r="AMJ103" s="1"/>
       <c r="AMK103" s="1"/>
     </row>
-    <row r="104" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="104" spans="940:1025">
       <c r="AJD104" s="1"/>
       <c r="AJE104" s="1"/>
       <c r="AJF104" s="1"/>
@@ -29819,7 +29812,7 @@
       <c r="AMJ104" s="1"/>
       <c r="AMK104" s="1"/>
     </row>
-    <row r="105" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="105" spans="940:1025">
       <c r="AJD105" s="1"/>
       <c r="AJE105" s="1"/>
       <c r="AJF105" s="1"/>
@@ -29907,7 +29900,7 @@
       <c r="AMJ105" s="1"/>
       <c r="AMK105" s="1"/>
     </row>
-    <row r="106" spans="940:1025" x14ac:dyDescent="0.45">
+    <row r="106" spans="940:1025">
       <c r="AJD106" s="1"/>
       <c r="AJE106" s="1"/>
       <c r="AJF106" s="1"/>
@@ -29997,88 +29990,33 @@
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="AS46:CI46"/>
-    <mergeCell ref="AS45:CI45"/>
-    <mergeCell ref="B33:CI33"/>
-    <mergeCell ref="Y42:BK42"/>
-    <mergeCell ref="Y41:BK41"/>
-    <mergeCell ref="Y40:BK40"/>
-    <mergeCell ref="Y39:BK39"/>
-    <mergeCell ref="B35:CI35"/>
-    <mergeCell ref="B56:CI56"/>
-    <mergeCell ref="B63:CI63"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:X58"/>
-    <mergeCell ref="Y58:BK58"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:X59"/>
-    <mergeCell ref="Y59:BK59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:X60"/>
-    <mergeCell ref="Y60:BK60"/>
-    <mergeCell ref="B62:CI62"/>
-    <mergeCell ref="G52:P52"/>
-    <mergeCell ref="Q52:Z52"/>
-    <mergeCell ref="AA52:AK52"/>
-    <mergeCell ref="G53:P53"/>
-    <mergeCell ref="Q53:Z53"/>
-    <mergeCell ref="AA53:AK53"/>
-    <mergeCell ref="G54:P54"/>
-    <mergeCell ref="Q54:Z54"/>
-    <mergeCell ref="AA54:AK54"/>
-    <mergeCell ref="B48:CI48"/>
-    <mergeCell ref="G50:P50"/>
-    <mergeCell ref="Q50:Z50"/>
-    <mergeCell ref="AA50:AK50"/>
-    <mergeCell ref="AL50:BK50"/>
-    <mergeCell ref="G51:P51"/>
-    <mergeCell ref="Q51:Z51"/>
-    <mergeCell ref="AA51:AK51"/>
-    <mergeCell ref="AL51:BK51"/>
-    <mergeCell ref="AL54:BK54"/>
-    <mergeCell ref="AL53:BK53"/>
-    <mergeCell ref="AL52:BK52"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:X45"/>
-    <mergeCell ref="Y45:AH45"/>
-    <mergeCell ref="AI45:AR45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:X46"/>
-    <mergeCell ref="Y46:AH46"/>
-    <mergeCell ref="AI46:AR46"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:X42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:X39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:X40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:X41"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:X28"/>
-    <mergeCell ref="Y28:BK28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:X29"/>
-    <mergeCell ref="Y29:BK29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:X30"/>
-    <mergeCell ref="Y30:BK30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:X31"/>
-    <mergeCell ref="Y31:BK31"/>
-    <mergeCell ref="G32:X32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:X37"/>
-    <mergeCell ref="Y37:BK37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:X38"/>
-    <mergeCell ref="Y38:BK38"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:BK23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:BK24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="Y20:BK20"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="AS8:CI8"/>
+    <mergeCell ref="Y7:AH7"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI7:AR7"/>
+    <mergeCell ref="AI8:AR8"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
@@ -30103,33 +30041,88 @@
     <mergeCell ref="AS7:CI7"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:BK20"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="AS8:CI8"/>
-    <mergeCell ref="Y7:AH7"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI7:AR7"/>
-    <mergeCell ref="AI8:AR8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y37:BK37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:X38"/>
+    <mergeCell ref="Y38:BK38"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:BK23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:BK24"/>
+    <mergeCell ref="Y28:BK28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:X29"/>
+    <mergeCell ref="Y29:BK29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:X30"/>
+    <mergeCell ref="Y30:BK30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:X31"/>
+    <mergeCell ref="Y31:BK31"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:X42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:X39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:X40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:X41"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:X28"/>
+    <mergeCell ref="G32:X32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:X37"/>
+    <mergeCell ref="Q51:Z51"/>
+    <mergeCell ref="AA51:AK51"/>
+    <mergeCell ref="AL51:BK51"/>
+    <mergeCell ref="AL54:BK54"/>
+    <mergeCell ref="AL53:BK53"/>
+    <mergeCell ref="AL52:BK52"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:X45"/>
+    <mergeCell ref="Y45:AH45"/>
+    <mergeCell ref="AI45:AR45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:X46"/>
+    <mergeCell ref="Y46:AH46"/>
+    <mergeCell ref="AI46:AR46"/>
+    <mergeCell ref="B63:CI63"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:X58"/>
+    <mergeCell ref="Y58:BK58"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:X59"/>
+    <mergeCell ref="Y59:BK59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:X60"/>
+    <mergeCell ref="Y60:BK60"/>
+    <mergeCell ref="B62:CI62"/>
+    <mergeCell ref="AS46:CI46"/>
+    <mergeCell ref="AS45:CI45"/>
+    <mergeCell ref="B33:CI33"/>
+    <mergeCell ref="Y42:BK42"/>
+    <mergeCell ref="Y41:BK41"/>
+    <mergeCell ref="Y40:BK40"/>
+    <mergeCell ref="Y39:BK39"/>
+    <mergeCell ref="B35:CI35"/>
+    <mergeCell ref="B56:CI56"/>
+    <mergeCell ref="G52:P52"/>
+    <mergeCell ref="Q52:Z52"/>
+    <mergeCell ref="AA52:AK52"/>
+    <mergeCell ref="G53:P53"/>
+    <mergeCell ref="Q53:Z53"/>
+    <mergeCell ref="AA53:AK53"/>
+    <mergeCell ref="G54:P54"/>
+    <mergeCell ref="Q54:Z54"/>
+    <mergeCell ref="AA54:AK54"/>
+    <mergeCell ref="B48:CI48"/>
+    <mergeCell ref="G50:P50"/>
+    <mergeCell ref="Q50:Z50"/>
+    <mergeCell ref="AA50:AK50"/>
+    <mergeCell ref="AL50:BK50"/>
+    <mergeCell ref="G51:P51"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
